--- a/AfDD_2023_Annex_Table_Tab06.xlsx
+++ b/AfDD_2023_Annex_Table_Tab06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Annex_Table_Tab06.xlsx
+++ b/AfDD_2023_Annex_Table_Tab06.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CF1B21E-A89E-47A8-AE3A-EC2FE53D1293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{26BEF478-79C2-4925-A52D-39AA9D80013A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab06'!$A$2:$I$99</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab06'!$A$1:$I$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab06'!$A$2:$I$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab06'!$A$1:$I$98</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="173">
   <si>
     <t>Table 6: Basic education indicators</t>
   </si>
@@ -325,7 +337,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -514,7 +526,7 @@
     <t>ROW, Fragile States</t>
   </si>
   <si>
-    <t>Extremely Fragile States</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
@@ -524,9 +536,6 @@
   </si>
   <si>
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: UNESCO Institute for Statistics (UIS) Database (retrieved 17/11/2021).</t>
@@ -550,7 +559,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
@@ -862,23 +871,22 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -911,10 +919,7 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -923,7 +928,7 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -935,7 +940,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -944,7 +949,7 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,7 +958,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -965,7 +970,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -974,7 +979,7 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -983,7 +988,7 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -995,16 +1000,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
@@ -1043,7 +1044,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1055,7 +1056,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1102,6 +1103,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1137,6 +1155,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1288,23 +1323,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26379AF1-F395-451E-A1D4-AA7BB9FDBB0B}">
+  <sheetPr codeName="Sheet17">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="13.26953125" style="50" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="13.26953125" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1318,3185 +1352,3158 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>77.431129999999996</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>70.585130000000007</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>84.862380000000002</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>0.83176000000000005</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>66.030109999999993</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>53.407209999999999</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <v>79.974149999999995</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>0.66781000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>97.456289999999996</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>99.139539999999997</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>95.754750000000001</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>1.0341400000000001</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>86.823179999999994</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>87.451210000000003</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>86.122140000000002</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <v>1.0152000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>95.469369999999998</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>96.695250000000001</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <v>94.297690000000003</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>1.0247999999999999</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="18">
         <v>88.419380000000004</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <v>88.542689999999993</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <v>88.287580000000005</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="19">
         <v>1.00288</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>86.632199999999997</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>93.969880000000003</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="18">
         <v>79.608040000000003</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>1.15283</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="18">
         <v>76.635199999999998</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <v>84.934889999999996</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="18">
         <v>67.747470000000007</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="19">
         <v>1.2023600000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>72.935609999999997</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>73.385800000000003</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>72.491720000000001</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>1.0121800000000001</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="18">
         <v>62.143540000000002</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <v>55.20411</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <v>69.753969999999995</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="19">
         <v>0.79140999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>70.912450000000007</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>65.489769999999993</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <v>77.260170000000002</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>0.84765000000000001</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="18">
         <v>60.655430000000003</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <v>50.295140000000004</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="18">
         <v>72.599450000000004</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="19">
         <v>0.69277999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <v>95.164900000000003</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>96.198440000000005</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <v>94.109369999999998</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>1.02172</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="18">
         <v>91.527270000000001</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="18">
         <v>91.436430000000001</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="18">
         <v>91.627420000000001</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="19">
         <v>0.99792000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>98.409530000000004</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <v>98.829570000000004</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>97.986239999999995</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>1.0085299999999999</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="18">
         <v>95.022970000000001</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <v>94.533169999999998</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="18">
         <v>95.545370000000005</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="19">
         <v>0.98941000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>92.091570000000004</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>91.628190000000004</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>92.559640000000002</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>0.98994000000000004</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>86.747960000000006</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>83.083439999999996</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>90.601179999999999</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>0.91701999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="21">
         <v>90.428120000000007</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="21">
         <v>93.18835</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>87.591859999999997</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <v>1.06006</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="21">
         <v>88.693420000000003</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="21">
         <v>88.283829999999995</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="21">
         <v>89.185370000000006</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <v>0.98989000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="25">
         <v>87.693117000000001</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <v>87.910991999999993</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="25">
         <v>87.652186</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="26">
         <v>0.99836100000000005</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="25">
         <v>80.269846000000001</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="25">
         <v>77.717212000000004</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="25">
         <v>83.144409999999993</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="26">
         <v>0.92666800000000005</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>88.221770000000006</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="18">
         <v>85.618549999999999</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="18">
         <v>91.034149999999997</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="19">
         <v>0.94050999999999996</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="18">
         <v>68.375330000000005</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="18">
         <v>61.223689999999998</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="18">
         <v>76.296049999999994</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="19">
         <v>0.80245</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <v>85.08</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="18">
         <v>82.41</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="18">
         <v>87.72</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
         <v>0.93947000000000003</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="18">
         <v>77.071039999999996</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="18">
         <v>71.586269999999999</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="18">
         <v>82.628039999999999</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="19">
         <v>0.86636999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="18">
         <v>38.268650000000001</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="18">
         <v>28.706659999999999</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="18">
         <v>47.804929999999999</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="19">
         <v>0.60050000000000003</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="18">
         <v>37.395820000000001</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="18">
         <v>25.75638</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="18">
         <v>49.514589999999998</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="19">
         <v>0.52017999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>30.791609999999999</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>22.387149999999998</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>40.692889999999998</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>0.55015000000000003</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>22.31155</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>13.95523</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>31.328790000000001</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>0.44544</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>82.054789999999997</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>78.742310000000003</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>85.341650000000001</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>0.92266999999999999</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>80.298760000000001</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>74.618759999999995</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>86.076509999999999</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>0.86689000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>84.989509999999996</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>79.714839999999995</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>90.960970000000003</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <v>0.87636000000000003</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>77.042680000000004</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <v>66.499979999999994</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="15">
         <v>88.524690000000007</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="16">
         <v>0.75119999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>89.783659999999998</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>91.449380000000005</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>88.141959999999997</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <v>1.03617</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <v>84.667159999999996</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <v>83.423969999999997</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>85.852350000000001</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <v>0.97170999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="18">
         <v>97.782550000000001</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="18">
         <v>97.854179999999999</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="18">
         <v>97.712459999999993</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="19">
         <v>1.00145</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="18">
         <v>92.816640000000007</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="18">
         <v>89.515730000000005</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="18">
         <v>96.162679999999995</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="19">
         <v>0.93088000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="25">
         <v>74.621567499999998</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="25">
         <v>70.860383749999997</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="25">
         <v>78.676126249999996</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="26">
         <v>0.85841000000000001</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="25">
         <v>67.497372499999997</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="25">
         <v>60.822501250000002</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="25">
         <v>74.547962499999997</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="26">
         <v>0.76939000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="18">
         <v>78.270390000000006</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="18">
         <v>78.302359999999993</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="18">
         <v>78.239410000000007</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="19">
         <v>1.0007999999999999</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="18">
         <v>58.817019999999999</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="18">
         <v>52.956389999999999</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="18">
         <v>64.644199999999998</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="19">
         <v>0.81920000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="18">
         <v>93.272390000000001</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="18">
         <v>92.714029999999994</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="18">
         <v>93.818680000000001</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="19">
         <v>0.98823000000000005</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="18">
         <v>76.570520000000002</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="18">
         <v>68.946190000000001</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="18">
         <v>84.373239999999996</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="19">
         <v>0.81716</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="18">
         <v>72.754819999999995</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="18">
         <v>71.97251</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="18">
         <v>73.520719999999997</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="19">
         <v>0.97894000000000003</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="18">
         <v>51.771180000000001</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="18">
         <v>44.423380000000002</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="18">
         <v>59.241459999999996</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="19">
         <v>0.74987000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="18">
         <v>87.83</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="18">
         <v>88.08</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="18">
         <v>87.59</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="19">
         <v>1.00556</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="18">
         <v>81.534970000000001</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="18">
         <v>78.188929999999999</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="18">
         <v>84.988829999999993</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="19">
         <v>0.91998999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="18">
         <v>79.851169999999996</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="18">
         <v>79.181190000000001</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="18">
         <v>80.578059999999994</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="19">
         <v>0.98265999999999998</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="18">
         <v>76.679680000000005</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="18">
         <v>75.070580000000007</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="18">
         <v>78.378280000000004</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="19">
         <v>0.95779999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="18">
         <v>99.042029999999997</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="18">
         <v>99.35342</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="18">
         <v>98.737979999999993</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="19">
         <v>1.0061899999999999</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="18">
         <v>91.325389999999999</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="18">
         <v>89.366380000000007</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="18">
         <v>93.357349999999997</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="19">
         <v>0.95725000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="18">
         <v>86.492769999999993</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="18">
         <v>88.501819999999995</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="18">
         <v>84.32593</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="19">
         <v>1.04718</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="18">
         <v>73.215590000000006</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="18">
         <v>69.394540000000006</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="18">
         <v>77.558800000000005</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="19">
         <v>0.89473000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="18">
         <v>99.07</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="18">
         <v>99.6</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="18">
         <v>98.56</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="19">
         <v>1.01044</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="18">
         <v>95.867710000000002</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="18">
         <v>96.350200000000001</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="18">
         <v>95.411760000000001</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="19">
         <v>1.0097400000000001</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="J33" s="21" t="s">
+      <c r="J33" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="15">
         <v>47.900959999999998</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="15">
         <v>47.369199999999999</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>48.425139999999999</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="16">
         <v>0.97819</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="15">
         <v>34.522759999999998</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="15">
         <v>28.864260000000002</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="15">
         <v>40.264809999999997</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="16">
         <v>0.71686000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="18">
         <v>73</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="18">
         <v>73.489999999999995</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="18">
         <v>72.510000000000005</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="19">
         <v>1.0133399999999999</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="18">
         <v>60.697180000000003</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="18">
         <v>56.063229999999997</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="18">
         <v>65.435149999999993</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="19">
         <v>0.85677999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="18">
         <v>85.755139999999997</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="18">
         <v>84.640799999999999</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="18">
         <v>87.013099999999994</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="19">
         <v>0.97274000000000005</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="18">
         <v>77.887230000000002</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="18">
         <v>73.093829999999997</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="18">
         <v>83.204849999999993</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="19">
         <v>0.87848000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="18">
         <v>89.39631</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="18">
         <v>89.950640000000007</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="18">
         <v>88.826899999999995</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="19">
         <v>1.0124899999999999</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="18">
         <v>76.527500000000003</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="18">
         <v>70.838059999999999</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="18">
         <v>82.656009999999995</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="19">
         <v>0.85702</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="25">
         <v>82.719665000000006</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="25">
         <v>82.762997499999997</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="25">
         <v>82.678826666666694</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="26">
         <v>0.99973000000000001</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="25">
         <v>71.284727500000002</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="25">
         <v>66.9629975</v>
       </c>
-      <c r="I38" s="27">
+      <c r="I38" s="25">
         <v>75.792895000000001</v>
       </c>
-      <c r="J38" s="28">
+      <c r="J38" s="26">
         <v>0.86957333333332998</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>97.426519999999996</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <v>97.252160000000003</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <v>97.594059999999999</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="13">
         <v>0.99650000000000005</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <v>81.407839999999993</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="12">
         <v>75.322969999999998</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="12">
         <v>87.422960000000003</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="13">
         <v>0.86158999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="18">
         <v>88.19256</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="18">
         <v>86.810550000000006</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="18">
         <v>89.483379999999997</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="19">
         <v>0.97013000000000005</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="18">
         <v>71.16825</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="18">
         <v>65.505690000000001</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="18">
         <v>76.495220000000003</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="19">
         <v>0.85633999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>63.947809999999997</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>56.760719999999999</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <v>70.936329999999998</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="13">
         <v>0.80015999999999998</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="12">
         <v>53.497590000000002</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="12">
         <v>43.354390000000002</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="12">
         <v>63.748550000000002</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="13">
         <v>0.68008000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="18">
         <v>97.73</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="18">
         <v>97.4</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="18">
         <v>98.04</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="19">
         <v>0.99346999999999996</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="18">
         <v>73.750010000000003</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="18">
         <v>64.591380000000001</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="18">
         <v>83.301349999999999</v>
       </c>
-      <c r="J43" s="21">
+      <c r="J43" s="19">
         <v>0.77539000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="18">
         <v>96.209100000000007</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="18">
         <v>95.801190000000005</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="18">
         <v>96.611840000000001</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="19">
         <v>0.99160999999999999</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="18">
         <v>79.036429999999996</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="18">
         <v>72.223770000000002</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="18">
         <v>86.060119999999998</v>
       </c>
-      <c r="J44" s="21">
+      <c r="J44" s="19">
         <v>0.83921999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="25">
         <v>88.701198000000005</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="25">
         <v>86.804924</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="25">
         <v>90.533122000000006</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="26">
         <v>0.95037400000000005</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="25">
         <v>71.772024000000002</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="25">
         <v>64.199640000000002</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="25">
         <v>79.405640000000005</v>
       </c>
-      <c r="J45" s="28">
+      <c r="J45" s="26">
         <v>0.80252400000000002</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="18">
         <v>60.948079999999997</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="18">
         <v>51.943620000000003</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="18">
         <v>69.761179999999996</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="19">
         <v>0.74458999999999997</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="18">
         <v>42.362400000000001</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="18">
         <v>31.071650000000002</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="18">
         <v>53.977029999999999</v>
       </c>
-      <c r="J46" s="21">
+      <c r="J46" s="19">
         <v>0.57565</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="18">
         <v>58.873980000000003</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="18">
         <v>54.450670000000002</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="18">
         <v>63.86195</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="19">
         <v>0.85263</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="18">
         <v>39.345849999999999</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="18">
         <v>31.044080000000001</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="18">
         <v>49.172730000000001</v>
       </c>
-      <c r="J47" s="21">
+      <c r="J47" s="19">
         <v>0.63132999999999995</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="12">
         <v>98.111310000000003</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="12">
         <v>98.730180000000004</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="12">
         <v>97.585009999999997</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="13">
         <v>1.0116000000000001</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G48" s="12">
         <v>86.790289999999999</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="12">
         <v>82.04222</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="12">
         <v>91.69144</v>
       </c>
-      <c r="J48" s="21">
+      <c r="J48" s="13">
         <v>0.89476</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="18">
         <v>83.626469999999998</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="18">
         <v>76.413139999999999</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="18">
         <v>92.820189999999997</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="19">
         <v>0.82323999999999997</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="18">
         <v>89.893420000000006</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="18">
         <v>86.741249999999994</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="18">
         <v>93.141350000000003</v>
       </c>
-      <c r="J49" s="21">
+      <c r="J49" s="19">
         <v>0.93128999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="18">
         <v>67.161379999999994</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="18">
         <v>64.446830000000006</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="18">
         <v>70.743480000000005</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="19">
         <v>0.91098999999999997</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G50" s="18">
         <v>50.777970000000003</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="18">
         <v>41.577019999999997</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50" s="18">
         <v>61.767249999999997</v>
       </c>
-      <c r="J50" s="21">
+      <c r="J50" s="19">
         <v>0.67312000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="15">
         <v>92.490970000000004</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="15">
         <v>92.208550000000002</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="15">
         <v>92.760999999999996</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="16">
         <v>0.99404000000000003</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="15">
         <v>79.039640000000006</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H51" s="15">
         <v>74.47439</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="15">
         <v>83.52458</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="16">
         <v>0.89165000000000005</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="18">
         <v>53.940519999999999</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="18">
         <v>43.469180000000001</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="18">
         <v>69.639889999999994</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="19">
         <v>0.62419999999999998</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="18">
         <v>39.61768</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="18">
         <v>27.69256</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="18">
         <v>54.431170000000002</v>
       </c>
-      <c r="J52" s="21">
+      <c r="J52" s="19">
         <v>0.50875999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="18">
         <v>60.402349999999998</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="18">
         <v>49.756320000000002</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="18">
         <v>71.250330000000005</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="19">
         <v>0.69833000000000001</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G53" s="18">
         <v>45.581159999999997</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="18">
         <v>30.768509999999999</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I53" s="18">
         <v>62.157969999999999</v>
       </c>
-      <c r="J53" s="21">
+      <c r="J53" s="19">
         <v>0.49501000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="18">
         <v>55.398699999999998</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="18">
         <v>45.638710000000003</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="18">
         <v>64.957130000000006</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="19">
         <v>0.7026</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G54" s="18">
         <v>48.301360000000003</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="18">
         <v>34.092260000000003</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="18">
         <v>62.696559999999998</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J54" s="19">
         <v>0.54376999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="18">
         <v>46.157339999999998</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="18">
         <v>38.452019999999997</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="18">
         <v>55.227209999999999</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="19">
         <v>0.69625000000000004</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="18">
         <v>30.761410000000001</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="18">
         <v>22.078469999999999</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="18">
         <v>40.434049999999999</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J55" s="19">
         <v>0.54603999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="18">
         <v>43.46</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="18">
         <v>35.56</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="18">
         <v>51.07</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="19">
         <v>0.69630000000000003</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="18">
         <v>35.049999999999997</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="18">
         <v>26.65</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="18">
         <v>43.594059999999999</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J56" s="19">
         <v>0.61131999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="12">
         <v>75.028750000000002</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="12">
         <v>68.262630000000001</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="12">
         <v>81.580640000000002</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="13">
         <v>0.83674999999999999</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="12">
         <v>62.016010000000001</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="12">
         <v>52.656480000000002</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="12">
         <v>71.255709999999993</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="13">
         <v>0.73897999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="18">
         <v>69.478409999999997</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="18">
         <v>63.50271</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="18">
         <v>75.576409999999996</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="19">
         <v>0.84025000000000005</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G58" s="18">
         <v>51.900419999999997</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="18">
         <v>39.798560000000002</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="18">
         <v>64.812280000000001</v>
       </c>
-      <c r="J58" s="21">
+      <c r="J58" s="19">
         <v>0.61406000000000005</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="18">
         <v>66.648600000000002</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="18">
         <v>62.699219999999997</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="18">
         <v>70.57611</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="19">
         <v>0.88839000000000001</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="18">
         <v>43.206330000000001</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="18">
         <v>34.852029999999999</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="18">
         <v>51.646880000000003</v>
       </c>
-      <c r="J59" s="21">
+      <c r="J59" s="19">
         <v>0.67481000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="15">
         <v>87.891440000000003</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="15">
         <v>84.005650000000003</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="15">
         <v>92.082840000000004</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="16">
         <v>0.91227999999999998</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="15">
         <v>66.537080000000003</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="15">
         <v>55.051499999999997</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="15">
         <v>79.991690000000006</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="16">
         <v>0.68822000000000005</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="27">
+      <c r="C61" s="25">
         <v>67.974553333333404</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="25">
         <v>61.969295333333299</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="25">
         <v>74.632891333333404</v>
       </c>
-      <c r="F61" s="28">
+      <c r="F61" s="26">
         <v>0.815496</v>
       </c>
-      <c r="G61" s="27">
+      <c r="G61" s="25">
         <v>54.078734666666698</v>
       </c>
-      <c r="H61" s="27">
+      <c r="H61" s="25">
         <v>44.706065333333299</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="25">
         <v>64.286316666666707</v>
       </c>
-      <c r="J61" s="28">
+      <c r="J61" s="26">
         <v>0.66791800000000001</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62" s="31">
         <v>78.593279600000002</v>
       </c>
-      <c r="D62" s="33">
+      <c r="D62" s="31">
         <v>76.054260200000002</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E62" s="31">
         <v>81.404715400000001</v>
       </c>
-      <c r="F62" s="34">
+      <c r="F62" s="32">
         <v>0.91663919999999999</v>
       </c>
-      <c r="G62" s="33">
+      <c r="G62" s="31">
         <v>67.362706200000005</v>
       </c>
-      <c r="H62" s="33">
+      <c r="H62" s="31">
         <v>61.177945600000001</v>
       </c>
-      <c r="I62" s="33">
+      <c r="I62" s="31">
         <v>73.973309799999996</v>
       </c>
-      <c r="J62" s="34">
+      <c r="J62" s="32">
         <v>0.79776139999999995</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C63" s="31">
         <v>97.189179418604596</v>
       </c>
-      <c r="D63" s="33">
+      <c r="D63" s="31">
         <v>97.062205813953497</v>
       </c>
-      <c r="E63" s="33">
+      <c r="E63" s="31">
         <v>97.345552441860505</v>
       </c>
-      <c r="F63" s="34">
+      <c r="F63" s="32">
         <v>0.99536697674418995</v>
       </c>
-      <c r="G63" s="33">
+      <c r="G63" s="31">
         <v>92.662818390804603</v>
       </c>
-      <c r="H63" s="33">
+      <c r="H63" s="31">
         <v>91.252841839080503</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="31">
         <v>94.088169770115002</v>
       </c>
-      <c r="J63" s="34">
+      <c r="J63" s="32">
         <v>0.96371827586207004</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="37">
+      <c r="C64" s="35">
         <v>97.648060400000105</v>
       </c>
-      <c r="D64" s="37">
+      <c r="D64" s="35">
         <v>97.938130000000001</v>
       </c>
-      <c r="E64" s="37">
+      <c r="E64" s="35">
         <v>97.368550400000103</v>
       </c>
-      <c r="F64" s="38">
+      <c r="F64" s="36">
         <v>1.0057904</v>
       </c>
-      <c r="G64" s="37">
+      <c r="G64" s="35">
         <v>92.527104615384602</v>
       </c>
-      <c r="H64" s="37">
+      <c r="H64" s="35">
         <v>91.980052307692304</v>
       </c>
-      <c r="I64" s="37">
+      <c r="I64" s="35">
         <v>93.119226923076894</v>
       </c>
-      <c r="J64" s="38">
+      <c r="J64" s="36">
         <v>0.98642076923077004</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="40">
+      <c r="C65" s="38">
         <v>94.159400000000005</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D65" s="38">
         <v>93.293322222222201</v>
       </c>
-      <c r="E65" s="40">
+      <c r="E65" s="38">
         <v>95.0471537037037</v>
       </c>
-      <c r="F65" s="41">
+      <c r="F65" s="39">
         <v>0.97658814814814998</v>
       </c>
-      <c r="G65" s="40">
+      <c r="G65" s="38">
         <v>86.209238518518504</v>
       </c>
-      <c r="H65" s="40">
+      <c r="H65" s="38">
         <v>82.7912888888889</v>
       </c>
-      <c r="I65" s="40">
+      <c r="I65" s="38">
         <v>89.690868518518499</v>
       </c>
-      <c r="J65" s="41">
+      <c r="J65" s="39">
         <v>0.90776037037037005</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="43">
+      <c r="C66" s="41">
         <v>90.352451544117699</v>
       </c>
-      <c r="D66" s="43">
+      <c r="D66" s="41">
         <v>89.338696397058797</v>
       </c>
-      <c r="E66" s="43">
+      <c r="E66" s="41">
         <v>91.484950588235293</v>
       </c>
-      <c r="F66" s="44">
+      <c r="F66" s="42">
         <v>0.96642294117646999</v>
       </c>
-      <c r="G66" s="43">
+      <c r="G66" s="41">
         <v>83.429200802919695</v>
       </c>
-      <c r="H66" s="43">
+      <c r="H66" s="41">
         <v>80.276602335766498</v>
       </c>
-      <c r="I66" s="43">
+      <c r="I66" s="41">
         <v>86.746979999999994</v>
       </c>
-      <c r="J66" s="44">
+      <c r="J66" s="42">
         <v>0.9031500729927</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="38">
         <v>87.084305000000001</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="38">
         <v>86.888260555555604</v>
       </c>
-      <c r="E67" s="40">
+      <c r="E67" s="38">
         <v>87.318829444444503</v>
       </c>
-      <c r="F67" s="41">
+      <c r="F67" s="39">
         <v>0.99507888888888996</v>
       </c>
-      <c r="G67" s="40">
+      <c r="G67" s="38">
         <v>75.812984999999998</v>
       </c>
-      <c r="H67" s="40">
+      <c r="H67" s="38">
         <v>71.231393333333401</v>
       </c>
-      <c r="I67" s="40">
+      <c r="I67" s="38">
         <v>80.624958888888898</v>
       </c>
-      <c r="J67" s="41">
+      <c r="J67" s="39">
         <v>0.87721944444444</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="40">
+      <c r="C68" s="38">
         <v>69.354127272727297</v>
       </c>
-      <c r="D68" s="40">
+      <c r="D68" s="38">
         <v>64.433781818181799</v>
       </c>
-      <c r="E68" s="40">
+      <c r="E68" s="38">
         <v>74.776758636363596</v>
       </c>
-      <c r="F68" s="41">
+      <c r="F68" s="39">
         <v>0.83757409090908996</v>
       </c>
-      <c r="G68" s="40">
+      <c r="G68" s="38">
         <v>54.969715454545501</v>
       </c>
-      <c r="H68" s="40">
+      <c r="H68" s="38">
         <v>46.264052272727298</v>
       </c>
-      <c r="I68" s="40">
+      <c r="I68" s="38">
         <v>64.309452727272699</v>
       </c>
-      <c r="J68" s="41">
+      <c r="J68" s="39">
         <v>0.69045590909091004</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="40">
+      <c r="C69" s="38">
         <v>80.932824999999994</v>
       </c>
-      <c r="D69" s="40">
+      <c r="D69" s="38">
         <v>80.693501666666705</v>
       </c>
-      <c r="E69" s="40">
+      <c r="E69" s="38">
         <v>81.202536666666703</v>
       </c>
-      <c r="F69" s="41">
+      <c r="F69" s="39">
         <v>0.99277833333332999</v>
       </c>
-      <c r="G69" s="40">
+      <c r="G69" s="38">
         <v>68.677229999999994</v>
       </c>
-      <c r="H69" s="40">
+      <c r="H69" s="38">
         <v>63.600551666666703</v>
       </c>
-      <c r="I69" s="40">
+      <c r="I69" s="38">
         <v>74.161558333333403</v>
       </c>
-      <c r="J69" s="41">
+      <c r="J69" s="39">
         <v>0.84492166666667001</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="40">
+      <c r="C70" s="38">
         <v>76.089644000000007</v>
       </c>
-      <c r="D70" s="40">
+      <c r="D70" s="38">
         <v>72.597002000000003</v>
       </c>
-      <c r="E70" s="40">
+      <c r="E70" s="38">
         <v>79.859731999999994</v>
       </c>
-      <c r="F70" s="41">
+      <c r="F70" s="39">
         <v>0.87462200000000001</v>
       </c>
-      <c r="G70" s="40">
+      <c r="G70" s="38">
         <v>67.922467999999995</v>
       </c>
-      <c r="H70" s="40">
+      <c r="H70" s="38">
         <v>60.938175999999999</v>
       </c>
-      <c r="I70" s="40">
+      <c r="I70" s="38">
         <v>75.391665000000003</v>
       </c>
-      <c r="J70" s="41">
+      <c r="J70" s="39">
         <v>0.77176599999999995</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="40">
+      <c r="C71" s="38">
         <v>67.974553333333404</v>
       </c>
-      <c r="D71" s="40">
+      <c r="D71" s="38">
         <v>61.969295333333299</v>
       </c>
-      <c r="E71" s="40">
+      <c r="E71" s="38">
         <v>74.632891333333404</v>
       </c>
-      <c r="F71" s="41">
+      <c r="F71" s="39">
         <v>0.815496</v>
       </c>
-      <c r="G71" s="40">
+      <c r="G71" s="38">
         <v>54.078734666666698</v>
       </c>
-      <c r="H71" s="40">
+      <c r="H71" s="38">
         <v>44.706065333333299</v>
       </c>
-      <c r="I71" s="40">
+      <c r="I71" s="38">
         <v>64.286316666666707</v>
       </c>
-      <c r="J71" s="41">
+      <c r="J71" s="39">
         <v>0.66791800000000001</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="40">
+      <c r="C72" s="38">
         <v>77.359080000000006</v>
       </c>
-      <c r="D72" s="40">
+      <c r="D72" s="38">
         <v>77.262730000000005</v>
       </c>
-      <c r="E72" s="40">
+      <c r="E72" s="38">
         <v>77.4485733333334</v>
       </c>
-      <c r="F72" s="41">
+      <c r="F72" s="39">
         <v>0.99612500000000004</v>
       </c>
-      <c r="G72" s="40">
+      <c r="G72" s="38">
         <v>63.6040183333333</v>
       </c>
-      <c r="H72" s="40">
+      <c r="H72" s="38">
         <v>57.8873416666667</v>
       </c>
-      <c r="I72" s="40">
+      <c r="I72" s="38">
         <v>69.493250000000003</v>
       </c>
-      <c r="J72" s="41">
+      <c r="J72" s="39">
         <v>0.81961333333332997</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="38">
         <v>87.744338124999999</v>
       </c>
-      <c r="D73" s="40">
+      <c r="D73" s="38">
         <v>87.493908125000004</v>
       </c>
-      <c r="E73" s="40">
+      <c r="E73" s="38">
         <v>88.163211250000003</v>
       </c>
-      <c r="F73" s="41">
+      <c r="F73" s="39">
         <v>0.98955000000000004</v>
       </c>
-      <c r="G73" s="40">
+      <c r="G73" s="38">
         <v>80.019885625000001</v>
       </c>
-      <c r="H73" s="40">
+      <c r="H73" s="38">
         <v>76.906842499999996</v>
       </c>
-      <c r="I73" s="40">
+      <c r="I73" s="38">
         <v>83.435326875000001</v>
       </c>
-      <c r="J73" s="41">
+      <c r="J73" s="39">
         <v>0.91502187499999998</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="40">
+      <c r="C74" s="38">
         <v>88.828357499999996</v>
       </c>
-      <c r="D74" s="40">
+      <c r="D74" s="38">
         <v>86.803517499999998</v>
       </c>
-      <c r="E74" s="40">
+      <c r="E74" s="38">
         <v>90.795557500000001</v>
       </c>
-      <c r="F74" s="41">
+      <c r="F74" s="39">
         <v>0.94543500000000003</v>
       </c>
-      <c r="G74" s="40">
+      <c r="G74" s="38">
         <v>71.922967499999999</v>
       </c>
-      <c r="H74" s="40">
+      <c r="H74" s="38">
         <v>63.873127500000002</v>
       </c>
-      <c r="I74" s="40">
+      <c r="I74" s="38">
         <v>80.133245000000002</v>
       </c>
-      <c r="J74" s="41">
+      <c r="J74" s="39">
         <v>0.78907000000000005</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="35" t="s">
+      <c r="A75" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="43">
+      <c r="C75" s="41">
         <v>80.927958000000004</v>
       </c>
-      <c r="D75" s="43">
+      <c r="D75" s="41">
         <v>76.483115999999995</v>
       </c>
-      <c r="E75" s="43">
+      <c r="E75" s="41">
         <v>85.734070000000003</v>
       </c>
-      <c r="F75" s="44">
+      <c r="F75" s="42">
         <v>0.87815799999999999</v>
       </c>
-      <c r="G75" s="43">
+      <c r="G75" s="41">
         <v>70.374725999999995</v>
       </c>
-      <c r="H75" s="43">
+      <c r="H75" s="41">
         <v>61.205762</v>
       </c>
-      <c r="I75" s="43">
+      <c r="I75" s="41">
         <v>80.517138000000003</v>
       </c>
-      <c r="J75" s="44">
+      <c r="J75" s="42">
         <v>0.73624800000000001</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="40">
+      <c r="C76" s="38">
         <v>97.143215999999995</v>
       </c>
-      <c r="D76" s="40">
+      <c r="D76" s="38">
         <v>97.114168000000006</v>
       </c>
-      <c r="E76" s="40">
+      <c r="E76" s="38">
         <v>97.176111000000006</v>
       </c>
-      <c r="F76" s="41">
+      <c r="F76" s="39">
         <v>0.99925299999999995</v>
       </c>
-      <c r="G76" s="40">
+      <c r="G76" s="38">
         <v>92.572111000000007</v>
       </c>
-      <c r="H76" s="40">
+      <c r="H76" s="38">
         <v>90.517522</v>
       </c>
-      <c r="I76" s="40">
+      <c r="I76" s="38">
         <v>94.740992000000006</v>
       </c>
-      <c r="J76" s="41">
+      <c r="J76" s="39">
         <v>0.95387200000000005</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="35" t="s">
+      <c r="A77" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="40">
+      <c r="C77" s="38">
         <v>98.841070000000002</v>
       </c>
-      <c r="D77" s="40">
+      <c r="D77" s="38">
         <v>98.987736666666706</v>
       </c>
-      <c r="E77" s="40">
+      <c r="E77" s="38">
         <v>98.698756666666696</v>
       </c>
-      <c r="F77" s="41">
+      <c r="F77" s="39">
         <v>1.0029224999999999</v>
       </c>
-      <c r="G77" s="40">
+      <c r="G77" s="38">
         <v>94.609506666666704</v>
       </c>
-      <c r="H77" s="40">
+      <c r="H77" s="38">
         <v>93.830447500000005</v>
       </c>
-      <c r="I77" s="40">
+      <c r="I77" s="38">
         <v>95.413752500000001</v>
       </c>
-      <c r="J77" s="41">
+      <c r="J77" s="39">
         <v>0.98342499999999999</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="40">
+      <c r="C78" s="38">
         <v>99.502804444444493</v>
       </c>
-      <c r="D78" s="40">
+      <c r="D78" s="38">
         <v>99.581906666666697</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="38">
         <v>99.448632222222301</v>
       </c>
-      <c r="F78" s="41">
+      <c r="F78" s="39">
         <v>1.0013377777777801</v>
       </c>
-      <c r="G78" s="40">
+      <c r="G78" s="38">
         <v>98.206751111111203</v>
       </c>
-      <c r="H78" s="40">
+      <c r="H78" s="38">
         <v>98.091163333333398</v>
       </c>
-      <c r="I78" s="40">
+      <c r="I78" s="38">
         <v>98.341725555555598</v>
       </c>
-      <c r="J78" s="41">
+      <c r="J78" s="39">
         <v>0.99752666666667</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="35" t="s">
+      <c r="A79" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="43">
+      <c r="C79" s="41">
         <v>99.436281666666702</v>
       </c>
-      <c r="D79" s="43">
+      <c r="D79" s="41">
         <v>99.507579166666702</v>
       </c>
-      <c r="E79" s="43">
+      <c r="E79" s="41">
         <v>99.382738333333407</v>
       </c>
-      <c r="F79" s="44">
+      <c r="F79" s="42">
         <v>1.0012558333333299</v>
       </c>
-      <c r="G79" s="43">
+      <c r="G79" s="41">
         <v>97.700460833333395</v>
       </c>
-      <c r="H79" s="43">
+      <c r="H79" s="41">
         <v>97.273721666666702</v>
       </c>
-      <c r="I79" s="43">
+      <c r="I79" s="41">
         <v>98.146425833333296</v>
       </c>
-      <c r="J79" s="44">
+      <c r="J79" s="42">
         <v>0.99112333333333003</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="40">
-        <v>73.780609999999996</v>
-      </c>
-      <c r="D80" s="40">
-        <v>69.348497142857198</v>
-      </c>
-      <c r="E80" s="40">
-        <v>78.449987142857196</v>
-      </c>
-      <c r="F80" s="41">
-        <v>0.85345142857142997</v>
-      </c>
-      <c r="G80" s="40">
-        <v>64.318431428571401</v>
-      </c>
-      <c r="H80" s="40">
-        <v>56.677001428571401</v>
-      </c>
-      <c r="I80" s="40">
-        <v>72.237002857142897</v>
-      </c>
-      <c r="J80" s="41">
-        <v>0.74750000000000005</v>
+      <c r="C80" s="38">
+        <v>76.821947499999993</v>
+      </c>
+      <c r="D80" s="38">
+        <v>73.021207500000003</v>
+      </c>
+      <c r="E80" s="38">
+        <v>80.841864999999999</v>
+      </c>
+      <c r="F80" s="39">
+        <v>0.87322</v>
+      </c>
+      <c r="G80" s="38">
+        <v>67.127413750000002</v>
+      </c>
+      <c r="H80" s="38">
+        <v>59.847653749999999</v>
+      </c>
+      <c r="I80" s="38">
+        <v>74.6688075</v>
+      </c>
+      <c r="J80" s="39">
+        <v>0.76590749999999996</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="39" t="s">
+      <c r="B81" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="40">
+      <c r="C81" s="38">
         <v>97.758459999999999</v>
       </c>
-      <c r="D81" s="40">
+      <c r="D81" s="38">
         <v>97.938018888888905</v>
       </c>
-      <c r="E81" s="40">
+      <c r="E81" s="38">
         <v>97.660330555555603</v>
       </c>
-      <c r="F81" s="41">
+      <c r="F81" s="39">
         <v>1.0029744444444399</v>
       </c>
-      <c r="G81" s="40">
+      <c r="G81" s="38">
         <v>94.470420555555606</v>
       </c>
-      <c r="H81" s="40">
+      <c r="H81" s="38">
         <v>93.184627777777806</v>
       </c>
-      <c r="I81" s="40">
+      <c r="I81" s="38">
         <v>95.640533888888896</v>
       </c>
-      <c r="J81" s="41">
+      <c r="J81" s="39">
         <v>0.97235333333332996</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="40">
-        <v>79.376737441860499</v>
-      </c>
-      <c r="D82" s="40">
-        <v>77.145896046511695</v>
-      </c>
-      <c r="E82" s="40">
-        <v>81.885717674418601</v>
-      </c>
-      <c r="F82" s="41">
-        <v>0.92692558139534997</v>
-      </c>
-      <c r="G82" s="40">
-        <v>67.858285813953501</v>
-      </c>
-      <c r="H82" s="40">
-        <v>61.910657441860501</v>
-      </c>
-      <c r="I82" s="40">
-        <v>74.255964418604705</v>
-      </c>
-      <c r="J82" s="41">
-        <v>0.80594348837208996</v>
+      <c r="C82" s="38">
+        <v>78.930676190476206</v>
+      </c>
+      <c r="D82" s="38">
+        <v>76.631984523809606</v>
+      </c>
+      <c r="E82" s="38">
+        <v>81.511925000000005</v>
+      </c>
+      <c r="F82" s="39">
+        <v>0.92490952380951996</v>
+      </c>
+      <c r="G82" s="38">
+        <v>67.407523809523795</v>
+      </c>
+      <c r="H82" s="38">
+        <v>61.431334523809497</v>
+      </c>
+      <c r="I82" s="38">
+        <v>73.840834047618998</v>
+      </c>
+      <c r="J82" s="39">
+        <v>0.80382880952380997</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="43">
+      <c r="C83" s="41">
         <v>97.038487500000002</v>
       </c>
-      <c r="D83" s="43">
+      <c r="D83" s="41">
         <v>96.830372941176506</v>
       </c>
-      <c r="E83" s="43">
+      <c r="E83" s="41">
         <v>97.262228823529497</v>
       </c>
-      <c r="F83" s="44">
+      <c r="F83" s="42">
         <v>0.99335323529412001</v>
       </c>
-      <c r="G83" s="43">
+      <c r="G83" s="41">
         <v>92.191270000000003</v>
       </c>
-      <c r="H83" s="43">
+      <c r="H83" s="41">
         <v>90.748897681159406</v>
       </c>
-      <c r="I83" s="43">
+      <c r="I83" s="41">
         <v>93.683205217391304</v>
       </c>
-      <c r="J83" s="44">
+      <c r="J83" s="42">
         <v>0.96146565217391</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="40">
+      <c r="C84" s="38">
         <v>66.760105909090896</v>
       </c>
-      <c r="D84" s="40">
+      <c r="D84" s="38">
         <v>62.589125454545503</v>
       </c>
-      <c r="E84" s="40">
+      <c r="E84" s="38">
         <v>71.439054545454596</v>
       </c>
-      <c r="F84" s="41">
+      <c r="F84" s="39">
         <v>0.85501590909090996</v>
       </c>
-      <c r="G84" s="40">
+      <c r="G84" s="38">
         <v>53.503981818181799</v>
       </c>
-      <c r="H84" s="40">
+      <c r="H84" s="38">
         <v>45.015509090909099</v>
       </c>
-      <c r="I84" s="40">
+      <c r="I84" s="38">
         <v>62.809893181818197</v>
       </c>
-      <c r="J84" s="41">
+      <c r="J84" s="39">
         <v>0.69209363636363996</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="40">
+      <c r="C85" s="38">
         <v>55.929400000000001</v>
       </c>
-      <c r="D85" s="40">
+      <c r="D85" s="38">
         <v>41.593719999999998</v>
       </c>
-      <c r="E85" s="40">
+      <c r="E85" s="38">
         <v>71.243939999999995</v>
       </c>
-      <c r="F85" s="41">
+      <c r="F85" s="39">
         <v>0.58382000000000001</v>
       </c>
-      <c r="G85" s="40">
+      <c r="G85" s="38">
         <v>37.266039999999997</v>
       </c>
-      <c r="H85" s="40">
+      <c r="H85" s="38">
         <v>22.60078</v>
       </c>
-      <c r="I85" s="40">
+      <c r="I85" s="38">
         <v>52.063429999999997</v>
       </c>
-      <c r="J85" s="41">
+      <c r="J85" s="39">
         <v>0.43409999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B86" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="40">
+      <c r="C86" s="38">
         <v>85.546147272727296</v>
       </c>
-      <c r="D86" s="40">
+      <c r="D86" s="38">
         <v>83.690086363636397</v>
       </c>
-      <c r="E86" s="40">
+      <c r="E86" s="38">
         <v>87.513012272727295</v>
       </c>
-      <c r="F86" s="41">
+      <c r="F86" s="39">
         <v>0.95020090909091004</v>
       </c>
-      <c r="G86" s="40">
+      <c r="G86" s="38">
         <v>74.809728636363701</v>
       </c>
-      <c r="H86" s="40">
+      <c r="H86" s="38">
         <v>69.363396363636397</v>
       </c>
-      <c r="I86" s="40">
+      <c r="I86" s="38">
         <v>80.405974999999998</v>
       </c>
-      <c r="J86" s="41">
+      <c r="J86" s="39">
         <v>0.85094454545455001</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="40">
+      <c r="C87" s="38">
         <v>94.780648461538505</v>
       </c>
-      <c r="D87" s="40">
+      <c r="D87" s="38">
         <v>94.583954615384599</v>
       </c>
-      <c r="E87" s="40">
+      <c r="E87" s="38">
         <v>94.962315769230798</v>
       </c>
-      <c r="F87" s="41">
+      <c r="F87" s="39">
         <v>0.99485384615384997</v>
       </c>
-      <c r="G87" s="40">
+      <c r="G87" s="38">
         <v>85.748264615384599</v>
       </c>
-      <c r="H87" s="40">
+      <c r="H87" s="38">
         <v>82.861538461538501</v>
       </c>
-      <c r="I87" s="40">
+      <c r="I87" s="38">
         <v>88.732171153846195</v>
       </c>
-      <c r="J87" s="41">
+      <c r="J87" s="39">
         <v>0.92645076923076997</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" s="35" t="s">
+      <c r="A88" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B88" s="39" t="s">
+      <c r="B88" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="40">
+      <c r="C88" s="38">
         <v>95.971282000000002</v>
       </c>
-      <c r="D88" s="40">
+      <c r="D88" s="38">
         <v>96.994069999999994</v>
       </c>
-      <c r="E88" s="40">
+      <c r="E88" s="38">
         <v>94.946060000000003</v>
       </c>
-      <c r="F88" s="41">
+      <c r="F88" s="39">
         <v>1.02135</v>
       </c>
-      <c r="G88" s="40">
+      <c r="G88" s="38">
         <v>89.873193999999998</v>
       </c>
-      <c r="H88" s="40">
+      <c r="H88" s="38">
         <v>89.242232000000001</v>
       </c>
-      <c r="I88" s="40">
+      <c r="I88" s="38">
         <v>90.500926000000007</v>
       </c>
-      <c r="J88" s="41">
+      <c r="J88" s="39">
         <v>0.98629800000000001</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="35" t="s">
+      <c r="A89" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="40">
+      <c r="C89" s="38">
         <v>98.890513333333402</v>
       </c>
-      <c r="D89" s="40">
+      <c r="D89" s="38">
         <v>98.983066666666701</v>
       </c>
-      <c r="E89" s="40">
+      <c r="E89" s="38">
         <v>98.804335897436005</v>
       </c>
-      <c r="F89" s="41">
+      <c r="F89" s="39">
         <v>1.0017630769230801</v>
       </c>
-      <c r="G89" s="40">
+      <c r="G89" s="38">
         <v>96.078867692307696</v>
       </c>
-      <c r="H89" s="40">
+      <c r="H89" s="38">
         <v>95.428970256410295</v>
       </c>
-      <c r="I89" s="40">
+      <c r="I89" s="38">
         <v>96.743538461538506</v>
       </c>
-      <c r="J89" s="41">
+      <c r="J89" s="39">
         <v>0.98606794871795</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="43">
+      <c r="C90" s="41">
         <v>99.081181999999998</v>
       </c>
-      <c r="D90" s="43">
+      <c r="D90" s="41">
         <v>99.337048999999993</v>
       </c>
-      <c r="E90" s="43">
+      <c r="E90" s="41">
         <v>98.910116000000102</v>
       </c>
-      <c r="F90" s="44">
+      <c r="F90" s="42">
         <v>1.0043325000000001</v>
       </c>
-      <c r="G90" s="43">
+      <c r="G90" s="41">
         <v>97.457574285714301</v>
       </c>
-      <c r="H90" s="43">
+      <c r="H90" s="41">
         <v>97.114433809523803</v>
       </c>
-      <c r="I90" s="43">
+      <c r="I90" s="41">
         <v>97.7116923809524</v>
       </c>
-      <c r="J90" s="44">
+      <c r="J90" s="42">
         <v>0.99395047619048005</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="39" t="s">
+      <c r="B91" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="40">
+      <c r="C91" s="38">
         <v>70.356761612903199</v>
       </c>
-      <c r="D91" s="40">
+      <c r="D91" s="38">
         <v>66.649946774193594</v>
       </c>
-      <c r="E91" s="40">
+      <c r="E91" s="38">
         <v>74.449295161290294</v>
       </c>
-      <c r="F91" s="41">
+      <c r="F91" s="39">
         <v>0.87564096774194</v>
       </c>
-      <c r="G91" s="40">
+      <c r="G91" s="38">
         <v>57.541360322580601</v>
       </c>
-      <c r="H91" s="40">
+      <c r="H91" s="38">
         <v>49.727654516129</v>
       </c>
-      <c r="I91" s="40">
+      <c r="I91" s="38">
         <v>66.022259354838695</v>
       </c>
-      <c r="J91" s="41">
+      <c r="J91" s="39">
         <v>0.72618064516128999</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="35" t="s">
+      <c r="A92" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="39" t="s">
+      <c r="B92" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="40">
+      <c r="C92" s="38">
         <v>86.944335555555597</v>
       </c>
-      <c r="D92" s="40">
+      <c r="D92" s="38">
         <v>85.237738888888899</v>
       </c>
-      <c r="E92" s="40">
+      <c r="E92" s="38">
         <v>88.784855555555595</v>
       </c>
-      <c r="F92" s="41">
+      <c r="F92" s="39">
         <v>0.95121111111111001</v>
       </c>
-      <c r="G92" s="40">
+      <c r="G92" s="38">
         <v>70.073353333333401</v>
       </c>
-      <c r="H92" s="40">
+      <c r="H92" s="38">
         <v>63.846510000000002</v>
       </c>
-      <c r="I92" s="40">
+      <c r="I92" s="38">
         <v>76.613816666666693</v>
       </c>
-      <c r="J92" s="41">
+      <c r="J92" s="39">
         <v>0.81668444444443999</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="35" t="s">
+      <c r="A93" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="39" t="s">
+      <c r="B93" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="40">
+      <c r="C93" s="38">
         <v>88.779771666666704</v>
       </c>
-      <c r="D93" s="40">
+      <c r="D93" s="38">
         <v>87.266076666666706</v>
       </c>
-      <c r="E93" s="40">
+      <c r="E93" s="38">
         <v>90.347531666666697</v>
       </c>
-      <c r="F93" s="41">
+      <c r="F93" s="39">
         <v>0.95480166666666999</v>
       </c>
-      <c r="G93" s="40">
+      <c r="G93" s="38">
         <v>78.533034999999998</v>
       </c>
-      <c r="H93" s="40">
+      <c r="H93" s="38">
         <v>73.499904999999998</v>
       </c>
-      <c r="I93" s="40">
+      <c r="I93" s="38">
         <v>83.904233333333394</v>
       </c>
-      <c r="J93" s="41">
+      <c r="J93" s="39">
         <v>0.85114000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" s="35" t="s">
+      <c r="A94" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="39" t="s">
+      <c r="B94" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="40">
+      <c r="C94" s="38">
         <v>96.545028666666695</v>
       </c>
-      <c r="D94" s="40">
+      <c r="D94" s="38">
         <v>96.897270666666699</v>
       </c>
-      <c r="E94" s="40">
+      <c r="E94" s="38">
         <v>96.208965333333396</v>
       </c>
-      <c r="F94" s="41">
+      <c r="F94" s="39">
         <v>1.0071333333333301</v>
       </c>
-      <c r="G94" s="40">
+      <c r="G94" s="38">
         <v>91.649180625</v>
       </c>
-      <c r="H94" s="40">
+      <c r="H94" s="38">
         <v>91.259870000000006</v>
       </c>
-      <c r="I94" s="40">
+      <c r="I94" s="38">
         <v>92.042691875000003</v>
       </c>
-      <c r="J94" s="41">
+      <c r="J94" s="39">
         <v>0.98807562500000001</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="35" t="s">
+      <c r="A95" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B95" s="39" t="s">
+      <c r="B95" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="40">
+      <c r="C95" s="38">
         <v>71.083210625000007</v>
       </c>
-      <c r="D95" s="40">
+      <c r="D95" s="38">
         <v>69.436014374999999</v>
       </c>
-      <c r="E95" s="40">
+      <c r="E95" s="38">
         <v>72.943344999999994</v>
       </c>
-      <c r="F95" s="41">
+      <c r="F95" s="39">
         <v>0.91419312500000005</v>
       </c>
-      <c r="G95" s="40">
+      <c r="G95" s="38">
         <v>59.921229375000003</v>
       </c>
-      <c r="H95" s="40">
+      <c r="H95" s="38">
         <v>55.108016249999999</v>
       </c>
-      <c r="I95" s="40">
+      <c r="I95" s="38">
         <v>65.109941250000006</v>
       </c>
-      <c r="J95" s="41">
+      <c r="J95" s="39">
         <v>0.79337500000000005</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="35" t="s">
+      <c r="A96" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B96" s="42" t="s">
+      <c r="B96" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="43">
+      <c r="C96" s="41">
         <v>95.565889374999998</v>
       </c>
-      <c r="D96" s="43">
+      <c r="D96" s="41">
         <v>94.462427500000004</v>
       </c>
-      <c r="E96" s="43">
+      <c r="E96" s="41">
         <v>96.73821375</v>
       </c>
-      <c r="F96" s="44">
+      <c r="F96" s="42">
         <v>0.96947749999999999</v>
       </c>
-      <c r="G96" s="43">
+      <c r="G96" s="41">
         <v>89.922199375000005</v>
       </c>
-      <c r="H96" s="43">
+      <c r="H96" s="41">
         <v>87.222699375000005</v>
       </c>
-      <c r="I96" s="43">
+      <c r="I96" s="41">
         <v>92.731848749999997</v>
       </c>
-      <c r="J96" s="44">
+      <c r="J96" s="42">
         <v>0.92005812499999995</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A97" s="35" t="s">
+      <c r="A97" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="39" t="s">
+      <c r="B97" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C97" s="40">
+      <c r="C97" s="38">
         <v>72.513323939393999</v>
       </c>
-      <c r="D97" s="40">
+      <c r="D97" s="38">
         <v>68.931875757575796</v>
       </c>
-      <c r="E97" s="40">
+      <c r="E97" s="38">
         <v>76.515226666666706</v>
       </c>
-      <c r="F97" s="41">
+      <c r="F97" s="39">
         <v>0.88217484848484995</v>
       </c>
-      <c r="G97" s="40">
+      <c r="G97" s="38">
         <v>61.493047878787898</v>
       </c>
-      <c r="H97" s="40">
+      <c r="H97" s="38">
         <v>54.460330606060602</v>
       </c>
-      <c r="I97" s="40">
+      <c r="I97" s="38">
         <v>69.090565757575803</v>
       </c>
-      <c r="J97" s="41">
+      <c r="J97" s="39">
         <v>0.75821696969696994</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" s="35" t="s">
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C98" s="40">
+      <c r="C98" s="41">
         <v>89.907127857142896</v>
       </c>
-      <c r="D98" s="40">
+      <c r="D98" s="41">
         <v>88.405255714285701</v>
       </c>
-      <c r="E98" s="40">
+      <c r="E98" s="41">
         <v>91.454587857142897</v>
       </c>
-      <c r="F98" s="41">
+      <c r="F98" s="42">
         <v>0.95826500000000003</v>
       </c>
-      <c r="G98" s="40">
+      <c r="G98" s="41">
         <v>79.009045</v>
       </c>
-      <c r="H98" s="40">
+      <c r="H98" s="41">
         <v>74.708944285714296</v>
       </c>
-      <c r="I98" s="40">
+      <c r="I98" s="41">
         <v>83.412341428571395</v>
       </c>
-      <c r="J98" s="41">
+      <c r="J98" s="42">
         <v>0.87758857142857005</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B99" s="42" t="s">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="43"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="45"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C99" s="43">
-        <v>67.765094000000005</v>
-      </c>
-      <c r="D99" s="43">
-        <v>63.235726</v>
-      </c>
-      <c r="E99" s="43">
-        <v>72.626716999999999</v>
-      </c>
-      <c r="F99" s="44">
-        <v>0.84274199999999999</v>
-      </c>
-      <c r="G99" s="43">
-        <v>56.520147000000001</v>
-      </c>
-      <c r="H99" s="43">
-        <v>48.778283000000002</v>
-      </c>
-      <c r="I99" s="43">
-        <v>64.598167000000004</v>
-      </c>
-      <c r="J99" s="44">
-        <v>0.71631199999999995</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100" s="45"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="47"/>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47"/>
-      <c r="J100" s="47"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101" s="48" t="s">
+      <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102" s="48" t="s">
+      <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A103" s="48" t="s">
+      <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A104" s="48" t="s">
+      <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A105" s="48" t="s">
+    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="47" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="51" t="s">
+      <c r="B108" s="47"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B109" s="51"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -4504,32 +4511,27 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B110" r:id="rId1"/>
-    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B114" r:id="rId3"/>
-    <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A1A01E49-C9F3-4B3F-AA52-36AD6EE11EE5}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{103F1397-3DAE-4920-AA81-0AF7D2129055}"/>
+    <hyperlink ref="B107" r:id="rId1" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{BFB66855-04DE-4291-B0FD-F4B62C05AB4C}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{9C1779AB-36D9-418A-9BB1-D5AA3CF38150}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{8D7CD7E9-C9B5-4A73-9F65-5CC5A6E7F959}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab06.xlsx
+++ b/AfDD_2023_Annex_Table_Tab06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CF1B21E-A89E-47A8-AE3A-EC2FE53D1293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7704F39-23BC-487C-86FC-A8A2E334B46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{26BEF478-79C2-4925-A52D-39AA9D80013A}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{99749D69-88A7-4214-A07E-A89C59CD12E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab06'!$A$2:$I$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab06'!$A$1:$I$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -560,11 +562,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.000_);\(#,##0.000\)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -697,18 +700,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0F793D"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1F0DE"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -717,9 +720,55 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
       </right>
       <top/>
       <bottom/>
@@ -727,25 +776,47 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF0F793D"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,60 +824,47 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </right>
       <top style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </left>
       <right style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </right>
-      <top style="medium">
-        <color rgb="FF0F793D"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </left>
-      <right style="medium">
-        <color rgb="FF0F793D"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0F793D"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0F793D"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,54 +873,19 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FF0070C0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0F793D"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0F793D"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0F793D"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0F793D"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0F793D"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0F793D"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0F793D"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -871,7 +894,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -880,13 +903,13 @@
     <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -895,107 +918,140 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1008,6 +1064,8 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1323,11 +1381,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26379AF1-F395-451E-A1D4-AA7BB9FDBB0B}">
-  <sheetPr codeName="Sheet17">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02939AC-91A4-4A5F-A916-9BCB53A5F413}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1335,7 +1393,9 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="13.26953125" style="46" customWidth="1"/>
+    <col min="3" max="5" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1345,52 +1405,52 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>77.431129999999996</v>
       </c>
       <c r="D3" s="12">
@@ -1402,7 +1462,7 @@
       <c r="F3" s="13">
         <v>0.83176000000000005</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>66.030109999999993</v>
       </c>
       <c r="H3" s="12">
@@ -1416,7 +1476,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -1425,292 +1485,292 @@
       <c r="C4" s="15">
         <v>97.456289999999996</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="16">
         <v>99.139539999999997</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="16">
         <v>95.754750000000001</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="17">
         <v>1.0341400000000001</v>
       </c>
       <c r="G4" s="15">
         <v>86.823179999999994</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="16">
         <v>87.451210000000003</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="16">
         <v>86.122140000000002</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="17">
         <v>1.0152000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="19">
         <v>95.469369999999998</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="20">
         <v>96.695250000000001</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="20">
         <v>94.297690000000003</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="21">
         <v>1.0247999999999999</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="19">
         <v>88.419380000000004</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="20">
         <v>88.542689999999993</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="20">
         <v>88.287580000000005</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="21">
         <v>1.00288</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="19">
         <v>86.632199999999997</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="20">
         <v>93.969880000000003</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="20">
         <v>79.608040000000003</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="21">
         <v>1.15283</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="19">
         <v>76.635199999999998</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="20">
         <v>84.934889999999996</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="20">
         <v>67.747470000000007</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="21">
         <v>1.2023600000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="19">
         <v>72.935609999999997</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="20">
         <v>73.385800000000003</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="20">
         <v>72.491720000000001</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="21">
         <v>1.0121800000000001</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="19">
         <v>62.143540000000002</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="20">
         <v>55.20411</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="20">
         <v>69.753969999999995</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="21">
         <v>0.79140999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="19">
         <v>70.912450000000007</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="20">
         <v>65.489769999999993</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="20">
         <v>77.260170000000002</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="21">
         <v>0.84765000000000001</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="19">
         <v>60.655430000000003</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="20">
         <v>50.295140000000004</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="20">
         <v>72.599450000000004</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="21">
         <v>0.69277999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="19">
         <v>95.164900000000003</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="20">
         <v>96.198440000000005</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="20">
         <v>94.109369999999998</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="21">
         <v>1.02172</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="19">
         <v>91.527270000000001</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="20">
         <v>91.436430000000001</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="20">
         <v>91.627420000000001</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="21">
         <v>0.99792000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="19">
         <v>98.409530000000004</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="20">
         <v>98.829570000000004</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="20">
         <v>97.986239999999995</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="21">
         <v>1.0085299999999999</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="19">
         <v>95.022970000000001</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="20">
         <v>94.533169999999998</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="20">
         <v>95.545370000000005</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="21">
         <v>0.98941000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="15">
         <v>92.091570000000004</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="16">
         <v>91.628190000000004</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="16">
         <v>92.559640000000002</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="17">
         <v>0.98994000000000004</v>
       </c>
       <c r="G11" s="15">
         <v>86.747960000000006</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="16">
         <v>83.083439999999996</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="16">
         <v>90.601179999999999</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="17">
         <v>0.91701999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="19">
         <v>90.428120000000007</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>93.18835</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>87.591859999999997</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <v>1.06006</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="19">
         <v>88.693420000000003</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>88.283829999999995</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="20">
         <v>89.185370000000006</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="21">
         <v>0.98989000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>87.693117000000001</v>
       </c>
       <c r="D13" s="25">
@@ -1722,7 +1782,7 @@
       <c r="F13" s="26">
         <v>0.99836100000000005</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <v>80.269846000000001</v>
       </c>
       <c r="H13" s="25">
@@ -1736,301 +1796,301 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="19">
         <v>88.221770000000006</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="20">
         <v>85.618549999999999</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="20">
         <v>91.034149999999997</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="21">
         <v>0.94050999999999996</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="19">
         <v>68.375330000000005</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="20">
         <v>61.223689999999998</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="20">
         <v>76.296049999999994</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="21">
         <v>0.80245</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="19">
         <v>85.08</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="20">
         <v>82.41</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="20">
         <v>87.72</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="21">
         <v>0.93947000000000003</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="19">
         <v>77.071039999999996</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="20">
         <v>71.586269999999999</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="20">
         <v>82.628039999999999</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="21">
         <v>0.86636999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="19">
         <v>38.268650000000001</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="20">
         <v>28.706659999999999</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="20">
         <v>47.804929999999999</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="21">
         <v>0.60050000000000003</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>37.395820000000001</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="20">
         <v>25.75638</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="20">
         <v>49.514589999999998</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="21">
         <v>0.52017999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="28">
         <v>30.791609999999999</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="29">
         <v>22.387149999999998</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="29">
         <v>40.692889999999998</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="30">
         <v>0.55015000000000003</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="28">
         <v>22.31155</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="29">
         <v>13.95523</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="29">
         <v>31.328790000000001</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="30">
         <v>0.44544</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="28">
         <v>82.054789999999997</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="29">
         <v>78.742310000000003</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="29">
         <v>85.341650000000001</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="30">
         <v>0.92266999999999999</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="28">
         <v>80.298760000000001</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="29">
         <v>74.618759999999995</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="29">
         <v>86.076509999999999</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="30">
         <v>0.86689000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="15">
         <v>84.989509999999996</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="16">
         <v>79.714839999999995</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="16">
         <v>90.960970000000003</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="17">
         <v>0.87636000000000003</v>
       </c>
       <c r="G19" s="15">
         <v>77.042680000000004</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="16">
         <v>66.499979999999994</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="16">
         <v>88.524690000000007</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="17">
         <v>0.75119999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="28">
         <v>89.783659999999998</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="29">
         <v>91.449380000000005</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="29">
         <v>88.141959999999997</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="30">
         <v>1.03617</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="28">
         <v>84.667159999999996</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="29">
         <v>83.423969999999997</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="29">
         <v>85.852350000000001</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="30">
         <v>0.97170999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="19">
         <v>97.782550000000001</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="20">
         <v>97.854179999999999</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="20">
         <v>97.712459999999993</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="21">
         <v>1.00145</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>92.816640000000007</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="20">
         <v>89.515730000000005</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="20">
         <v>96.162679999999995</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="21">
         <v>0.93088000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <v>74.621567499999998</v>
       </c>
       <c r="D23" s="25">
@@ -2042,7 +2102,7 @@
       <c r="F23" s="26">
         <v>0.85841000000000001</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="24">
         <v>67.497372499999997</v>
       </c>
       <c r="H23" s="25">
@@ -2056,327 +2116,327 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="19">
         <v>78.270390000000006</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="20">
         <v>78.302359999999993</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="20">
         <v>78.239410000000007</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="21">
         <v>1.0007999999999999</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>58.817019999999999</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="20">
         <v>52.956389999999999</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="20">
         <v>64.644199999999998</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="21">
         <v>0.81920000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="19">
         <v>93.272390000000001</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="20">
         <v>92.714029999999994</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="20">
         <v>93.818680000000001</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="21">
         <v>0.98823000000000005</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>76.570520000000002</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="20">
         <v>68.946190000000001</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="20">
         <v>84.373239999999996</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="21">
         <v>0.81716</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="19">
         <v>72.754819999999995</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="20">
         <v>71.97251</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="20">
         <v>73.520719999999997</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="21">
         <v>0.97894000000000003</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>51.771180000000001</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="20">
         <v>44.423380000000002</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="20">
         <v>59.241459999999996</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="21">
         <v>0.74987000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="19">
         <v>87.83</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="20">
         <v>88.08</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="20">
         <v>87.59</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="21">
         <v>1.00556</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>81.534970000000001</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="20">
         <v>78.188929999999999</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="20">
         <v>84.988829999999993</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="21">
         <v>0.91998999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="19">
         <v>79.851169999999996</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="20">
         <v>79.181190000000001</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="20">
         <v>80.578059999999994</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="21">
         <v>0.98265999999999998</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>76.679680000000005</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="20">
         <v>75.070580000000007</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="20">
         <v>78.378280000000004</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="21">
         <v>0.95779999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="19">
         <v>99.042029999999997</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="20">
         <v>99.35342</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="20">
         <v>98.737979999999993</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="21">
         <v>1.0061899999999999</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>91.325389999999999</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="20">
         <v>89.366380000000007</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="20">
         <v>93.357349999999997</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="21">
         <v>0.95725000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="19">
         <v>86.492769999999993</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="20">
         <v>88.501819999999995</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="20">
         <v>84.32593</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="21">
         <v>1.04718</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>73.215590000000006</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="20">
         <v>69.394540000000006</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="20">
         <v>77.558800000000005</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="21">
         <v>0.89473000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="19">
         <v>99.07</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="20">
         <v>99.6</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="20">
         <v>98.56</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="21">
         <v>1.01044</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>95.867710000000002</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="20">
         <v>96.350200000000001</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="20">
         <v>95.411760000000001</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="21">
         <v>1.0097400000000001</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B34" s="14" t="s">
@@ -2385,132 +2445,132 @@
       <c r="C34" s="15">
         <v>47.900959999999998</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="16">
         <v>47.369199999999999</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="16">
         <v>48.425139999999999</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="17">
         <v>0.97819</v>
       </c>
       <c r="G34" s="15">
         <v>34.522759999999998</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="16">
         <v>28.864260000000002</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="16">
         <v>40.264809999999997</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="17">
         <v>0.71686000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="19">
         <v>73</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="20">
         <v>73.489999999999995</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="20">
         <v>72.510000000000005</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="21">
         <v>1.0133399999999999</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>60.697180000000003</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="20">
         <v>56.063229999999997</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="20">
         <v>65.435149999999993</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="21">
         <v>0.85677999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="19">
         <v>85.755139999999997</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="20">
         <v>84.640799999999999</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="20">
         <v>87.013099999999994</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="21">
         <v>0.97274000000000005</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>77.887230000000002</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="20">
         <v>73.093829999999997</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="20">
         <v>83.204849999999993</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="21">
         <v>0.87848000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="19">
         <v>89.39631</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="20">
         <v>89.950640000000007</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="20">
         <v>88.826899999999995</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="21">
         <v>1.0124899999999999</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>76.527500000000003</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="20">
         <v>70.838059999999999</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="20">
         <v>82.656009999999995</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="21">
         <v>0.85702</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="24">
         <v>82.719665000000006</v>
       </c>
       <c r="D38" s="25">
@@ -2522,7 +2582,7 @@
       <c r="F38" s="26">
         <v>0.99973000000000001</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="24">
         <v>71.284727500000002</v>
       </c>
       <c r="H38" s="25">
@@ -2536,205 +2596,205 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="28">
         <v>97.426519999999996</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="29">
         <v>97.252160000000003</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="29">
         <v>97.594059999999999</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="30">
         <v>0.99650000000000005</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="28">
         <v>81.407839999999993</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="29">
         <v>75.322969999999998</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="29">
         <v>87.422960000000003</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="30">
         <v>0.86158999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="19">
         <v>88.19256</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="20">
         <v>86.810550000000006</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="20">
         <v>89.483379999999997</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="21">
         <v>0.97013000000000005</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>71.16825</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="20">
         <v>65.505690000000001</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="20">
         <v>76.495220000000003</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="21">
         <v>0.85633999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="30" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="28">
         <v>63.947809999999997</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="29">
         <v>56.760719999999999</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="29">
         <v>70.936329999999998</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="30">
         <v>0.80015999999999998</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="28">
         <v>53.497590000000002</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="29">
         <v>43.354390000000002</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="29">
         <v>63.748550000000002</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="30">
         <v>0.68008000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="19">
         <v>97.73</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="20">
         <v>97.4</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="20">
         <v>98.04</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="21">
         <v>0.99346999999999996</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>73.750010000000003</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="20">
         <v>64.591380000000001</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="20">
         <v>83.301349999999999</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="21">
         <v>0.77539000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="19">
         <v>96.209100000000007</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="20">
         <v>95.801190000000005</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="20">
         <v>96.611840000000001</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="21">
         <v>0.99160999999999999</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="19">
         <v>79.036429999999996</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="20">
         <v>72.223770000000002</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I44" s="20">
         <v>86.060119999999998</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="21">
         <v>0.83921999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="24">
         <v>88.701198000000005</v>
       </c>
       <c r="D45" s="25">
@@ -2746,7 +2806,7 @@
       <c r="F45" s="26">
         <v>0.95037400000000005</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="24">
         <v>71.772024000000002</v>
       </c>
       <c r="H45" s="25">
@@ -2760,167 +2820,167 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="19">
         <v>60.948079999999997</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="20">
         <v>51.943620000000003</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="20">
         <v>69.761179999999996</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="21">
         <v>0.74458999999999997</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="19">
         <v>42.362400000000001</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="20">
         <v>31.071650000000002</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="20">
         <v>53.977029999999999</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J46" s="21">
         <v>0.57565</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="19">
         <v>58.873980000000003</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="20">
         <v>54.450670000000002</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="20">
         <v>63.86195</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="21">
         <v>0.85263</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="19">
         <v>39.345849999999999</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="20">
         <v>31.044080000000001</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="20">
         <v>49.172730000000001</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J47" s="21">
         <v>0.63132999999999995</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="28">
         <v>98.111310000000003</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="29">
         <v>98.730180000000004</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="29">
         <v>97.585009999999997</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="30">
         <v>1.0116000000000001</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="28">
         <v>86.790289999999999</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="29">
         <v>82.04222</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="29">
         <v>91.69144</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="30">
         <v>0.89476</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="19">
         <v>83.626469999999998</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="20">
         <v>76.413139999999999</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="20">
         <v>92.820189999999997</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="21">
         <v>0.82323999999999997</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="19">
         <v>89.893420000000006</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="20">
         <v>86.741249999999994</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="20">
         <v>93.141350000000003</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J49" s="21">
         <v>0.93128999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="19">
         <v>67.161379999999994</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="20">
         <v>64.446830000000006</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="20">
         <v>70.743480000000005</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="21">
         <v>0.91098999999999997</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="19">
         <v>50.777970000000003</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="20">
         <v>41.577019999999997</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I50" s="20">
         <v>61.767249999999997</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J50" s="21">
         <v>0.67312000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B51" s="14" t="s">
@@ -2929,286 +2989,286 @@
       <c r="C51" s="15">
         <v>92.490970000000004</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="16">
         <v>92.208550000000002</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="16">
         <v>92.760999999999996</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="17">
         <v>0.99404000000000003</v>
       </c>
       <c r="G51" s="15">
         <v>79.039640000000006</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="16">
         <v>74.47439</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="16">
         <v>83.52458</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J51" s="17">
         <v>0.89165000000000005</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="19">
         <v>53.940519999999999</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="20">
         <v>43.469180000000001</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="20">
         <v>69.639889999999994</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="21">
         <v>0.62419999999999998</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="19">
         <v>39.61768</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="20">
         <v>27.69256</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I52" s="20">
         <v>54.431170000000002</v>
       </c>
-      <c r="J52" s="19">
+      <c r="J52" s="21">
         <v>0.50875999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="19">
         <v>60.402349999999998</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="20">
         <v>49.756320000000002</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="20">
         <v>71.250330000000005</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="21">
         <v>0.69833000000000001</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="19">
         <v>45.581159999999997</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="20">
         <v>30.768509999999999</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I53" s="20">
         <v>62.157969999999999</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="21">
         <v>0.49501000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="19">
         <v>55.398699999999998</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="20">
         <v>45.638710000000003</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="20">
         <v>64.957130000000006</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="21">
         <v>0.7026</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="19">
         <v>48.301360000000003</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="20">
         <v>34.092260000000003</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="20">
         <v>62.696559999999998</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="21">
         <v>0.54376999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="19">
         <v>46.157339999999998</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="20">
         <v>38.452019999999997</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="20">
         <v>55.227209999999999</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="21">
         <v>0.69625000000000004</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="19">
         <v>30.761410000000001</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="20">
         <v>22.078469999999999</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I55" s="20">
         <v>40.434049999999999</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J55" s="21">
         <v>0.54603999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="19">
         <v>43.46</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="20">
         <v>35.56</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="20">
         <v>51.07</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="21">
         <v>0.69630000000000003</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="19">
         <v>35.049999999999997</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="20">
         <v>26.65</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="20">
         <v>43.594059999999999</v>
       </c>
-      <c r="J56" s="19">
+      <c r="J56" s="21">
         <v>0.61131999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="28">
         <v>75.028750000000002</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="29">
         <v>68.262630000000001</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="29">
         <v>81.580640000000002</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="30">
         <v>0.83674999999999999</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="28">
         <v>62.016010000000001</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="29">
         <v>52.656480000000002</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="29">
         <v>71.255709999999993</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="30">
         <v>0.73897999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="19">
         <v>69.478409999999997</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="20">
         <v>63.50271</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="20">
         <v>75.576409999999996</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="21">
         <v>0.84025000000000005</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="19">
         <v>51.900419999999997</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H58" s="20">
         <v>39.798560000000002</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I58" s="20">
         <v>64.812280000000001</v>
       </c>
-      <c r="J58" s="19">
+      <c r="J58" s="21">
         <v>0.61406000000000005</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="19">
         <v>66.648600000000002</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="20">
         <v>62.699219999999997</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="20">
         <v>70.57611</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="21">
         <v>0.88839000000000001</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="19">
         <v>43.206330000000001</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="20">
         <v>34.852029999999999</v>
       </c>
-      <c r="I59" s="18">
+      <c r="I59" s="20">
         <v>51.646880000000003</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J59" s="21">
         <v>0.67481000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B60" s="14" t="s">
@@ -3217,36 +3277,36 @@
       <c r="C60" s="15">
         <v>87.891440000000003</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="16">
         <v>84.005650000000003</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="16">
         <v>92.082840000000004</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="17">
         <v>0.91227999999999998</v>
       </c>
       <c r="G60" s="15">
         <v>66.537080000000003</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="16">
         <v>55.051499999999997</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="16">
         <v>79.991690000000006</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J60" s="17">
         <v>0.68822000000000005</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="25">
+      <c r="C61" s="24">
         <v>67.974553333333404</v>
       </c>
       <c r="D61" s="25">
@@ -3258,7 +3318,7 @@
       <c r="F61" s="26">
         <v>0.815496</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="24">
         <v>54.078734666666698</v>
       </c>
       <c r="H61" s="25">
@@ -3272,77 +3332,77 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="31">
+      <c r="C62" s="34">
         <v>78.593279600000002</v>
       </c>
-      <c r="D62" s="31">
+      <c r="D62" s="35">
         <v>76.054260200000002</v>
       </c>
-      <c r="E62" s="31">
+      <c r="E62" s="35">
         <v>81.404715400000001</v>
       </c>
-      <c r="F62" s="32">
+      <c r="F62" s="36">
         <v>0.91663919999999999</v>
       </c>
-      <c r="G62" s="31">
+      <c r="G62" s="34">
         <v>67.362706200000005</v>
       </c>
-      <c r="H62" s="31">
+      <c r="H62" s="35">
         <v>61.177945600000001</v>
       </c>
-      <c r="I62" s="31">
+      <c r="I62" s="35">
         <v>73.973309799999996</v>
       </c>
-      <c r="J62" s="32">
+      <c r="J62" s="36">
         <v>0.79776139999999995</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="31">
+      <c r="C63" s="38">
         <v>97.189179418604596</v>
       </c>
-      <c r="D63" s="31">
+      <c r="D63" s="39">
         <v>97.062205813953497</v>
       </c>
-      <c r="E63" s="31">
+      <c r="E63" s="39">
         <v>97.345552441860505</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F63" s="40">
         <v>0.99536697674418995</v>
       </c>
-      <c r="G63" s="31">
+      <c r="G63" s="38">
         <v>92.662818390804603</v>
       </c>
-      <c r="H63" s="31">
+      <c r="H63" s="39">
         <v>91.252841839080503</v>
       </c>
-      <c r="I63" s="31">
+      <c r="I63" s="39">
         <v>94.088169770115002</v>
       </c>
-      <c r="J63" s="32">
+      <c r="J63" s="40">
         <v>0.96371827586207004</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="35">
+      <c r="C64" s="34">
         <v>97.648060400000105</v>
       </c>
       <c r="D64" s="35">
@@ -3354,7 +3414,7 @@
       <c r="F64" s="36">
         <v>1.0057904</v>
       </c>
-      <c r="G64" s="35">
+      <c r="G64" s="34">
         <v>92.527104615384602</v>
       </c>
       <c r="H64" s="35">
@@ -3368,1168 +3428,1295 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="37" t="s">
+      <c r="B65" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="38">
+      <c r="C65" s="43">
         <v>94.159400000000005</v>
       </c>
-      <c r="D65" s="38">
+      <c r="D65" s="44">
         <v>93.293322222222201</v>
       </c>
-      <c r="E65" s="38">
+      <c r="E65" s="44">
         <v>95.0471537037037</v>
       </c>
-      <c r="F65" s="39">
+      <c r="F65" s="45">
         <v>0.97658814814814998</v>
       </c>
-      <c r="G65" s="38">
+      <c r="G65" s="43">
         <v>86.209238518518504</v>
       </c>
-      <c r="H65" s="38">
+      <c r="H65" s="44">
         <v>82.7912888888889</v>
       </c>
-      <c r="I65" s="38">
+      <c r="I65" s="44">
         <v>89.690868518518499</v>
       </c>
-      <c r="J65" s="39">
+      <c r="J65" s="45">
         <v>0.90776037037037005</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="41">
+      <c r="C66" s="47">
         <v>90.352451544117699</v>
       </c>
-      <c r="D66" s="41">
+      <c r="D66" s="48">
         <v>89.338696397058797</v>
       </c>
-      <c r="E66" s="41">
+      <c r="E66" s="48">
         <v>91.484950588235293</v>
       </c>
-      <c r="F66" s="42">
+      <c r="F66" s="49">
         <v>0.96642294117646999</v>
       </c>
-      <c r="G66" s="41">
+      <c r="G66" s="47">
         <v>83.429200802919695</v>
       </c>
-      <c r="H66" s="41">
+      <c r="H66" s="48">
         <v>80.276602335766498</v>
       </c>
-      <c r="I66" s="41">
+      <c r="I66" s="48">
         <v>86.746979999999994</v>
       </c>
-      <c r="J66" s="42">
+      <c r="J66" s="49">
         <v>0.9031500729927</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="33" t="s">
+      <c r="A67" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="38">
+      <c r="C67" s="51">
         <v>87.084305000000001</v>
       </c>
-      <c r="D67" s="38">
+      <c r="D67" s="52">
         <v>86.888260555555604</v>
       </c>
-      <c r="E67" s="38">
+      <c r="E67" s="52">
         <v>87.318829444444503</v>
       </c>
-      <c r="F67" s="39">
+      <c r="F67" s="53">
         <v>0.99507888888888996</v>
       </c>
-      <c r="G67" s="38">
+      <c r="G67" s="51">
         <v>75.812984999999998</v>
       </c>
-      <c r="H67" s="38">
+      <c r="H67" s="52">
         <v>71.231393333333401</v>
       </c>
-      <c r="I67" s="38">
+      <c r="I67" s="52">
         <v>80.624958888888898</v>
       </c>
-      <c r="J67" s="39">
+      <c r="J67" s="53">
         <v>0.87721944444444</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="38">
+      <c r="C68" s="43">
         <v>69.354127272727297</v>
       </c>
-      <c r="D68" s="38">
+      <c r="D68" s="44">
         <v>64.433781818181799</v>
       </c>
-      <c r="E68" s="38">
+      <c r="E68" s="44">
         <v>74.776758636363596</v>
       </c>
-      <c r="F68" s="39">
+      <c r="F68" s="45">
         <v>0.83757409090908996</v>
       </c>
-      <c r="G68" s="38">
+      <c r="G68" s="43">
         <v>54.969715454545501</v>
       </c>
-      <c r="H68" s="38">
+      <c r="H68" s="44">
         <v>46.264052272727298</v>
       </c>
-      <c r="I68" s="38">
+      <c r="I68" s="44">
         <v>64.309452727272699</v>
       </c>
-      <c r="J68" s="39">
+      <c r="J68" s="45">
         <v>0.69045590909091004</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="37" t="s">
+      <c r="B69" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="38">
+      <c r="C69" s="43">
         <v>80.932824999999994</v>
       </c>
-      <c r="D69" s="38">
+      <c r="D69" s="44">
         <v>80.693501666666705</v>
       </c>
-      <c r="E69" s="38">
+      <c r="E69" s="44">
         <v>81.202536666666703</v>
       </c>
-      <c r="F69" s="39">
+      <c r="F69" s="45">
         <v>0.99277833333332999</v>
       </c>
-      <c r="G69" s="38">
+      <c r="G69" s="43">
         <v>68.677229999999994</v>
       </c>
-      <c r="H69" s="38">
+      <c r="H69" s="44">
         <v>63.600551666666703</v>
       </c>
-      <c r="I69" s="38">
+      <c r="I69" s="44">
         <v>74.161558333333403</v>
       </c>
-      <c r="J69" s="39">
+      <c r="J69" s="45">
         <v>0.84492166666667001</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B70" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="38">
+      <c r="C70" s="43">
         <v>76.089644000000007</v>
       </c>
-      <c r="D70" s="38">
+      <c r="D70" s="44">
         <v>72.597002000000003</v>
       </c>
-      <c r="E70" s="38">
+      <c r="E70" s="44">
         <v>79.859731999999994</v>
       </c>
-      <c r="F70" s="39">
+      <c r="F70" s="45">
         <v>0.87462200000000001</v>
       </c>
-      <c r="G70" s="38">
+      <c r="G70" s="43">
         <v>67.922467999999995</v>
       </c>
-      <c r="H70" s="38">
+      <c r="H70" s="44">
         <v>60.938175999999999</v>
       </c>
-      <c r="I70" s="38">
+      <c r="I70" s="44">
         <v>75.391665000000003</v>
       </c>
-      <c r="J70" s="39">
+      <c r="J70" s="45">
         <v>0.77176599999999995</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="38">
+      <c r="C71" s="43">
         <v>67.974553333333404</v>
       </c>
-      <c r="D71" s="38">
+      <c r="D71" s="44">
         <v>61.969295333333299</v>
       </c>
-      <c r="E71" s="38">
+      <c r="E71" s="44">
         <v>74.632891333333404</v>
       </c>
-      <c r="F71" s="39">
+      <c r="F71" s="45">
         <v>0.815496</v>
       </c>
-      <c r="G71" s="38">
+      <c r="G71" s="43">
         <v>54.078734666666698</v>
       </c>
-      <c r="H71" s="38">
+      <c r="H71" s="44">
         <v>44.706065333333299</v>
       </c>
-      <c r="I71" s="38">
+      <c r="I71" s="44">
         <v>64.286316666666707</v>
       </c>
-      <c r="J71" s="39">
+      <c r="J71" s="45">
         <v>0.66791800000000001</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="38">
+      <c r="C72" s="43">
         <v>77.359080000000006</v>
       </c>
-      <c r="D72" s="38">
+      <c r="D72" s="44">
         <v>77.262730000000005</v>
       </c>
-      <c r="E72" s="38">
+      <c r="E72" s="44">
         <v>77.4485733333334</v>
       </c>
-      <c r="F72" s="39">
+      <c r="F72" s="45">
         <v>0.99612500000000004</v>
       </c>
-      <c r="G72" s="38">
+      <c r="G72" s="43">
         <v>63.6040183333333</v>
       </c>
-      <c r="H72" s="38">
+      <c r="H72" s="44">
         <v>57.8873416666667</v>
       </c>
-      <c r="I72" s="38">
+      <c r="I72" s="44">
         <v>69.493250000000003</v>
       </c>
-      <c r="J72" s="39">
+      <c r="J72" s="45">
         <v>0.81961333333332997</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" s="33" t="s">
+      <c r="A73" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="38">
+      <c r="C73" s="43">
         <v>87.744338124999999</v>
       </c>
-      <c r="D73" s="38">
+      <c r="D73" s="44">
         <v>87.493908125000004</v>
       </c>
-      <c r="E73" s="38">
+      <c r="E73" s="44">
         <v>88.163211250000003</v>
       </c>
-      <c r="F73" s="39">
+      <c r="F73" s="45">
         <v>0.98955000000000004</v>
       </c>
-      <c r="G73" s="38">
+      <c r="G73" s="43">
         <v>80.019885625000001</v>
       </c>
-      <c r="H73" s="38">
+      <c r="H73" s="44">
         <v>76.906842499999996</v>
       </c>
-      <c r="I73" s="38">
+      <c r="I73" s="44">
         <v>83.435326875000001</v>
       </c>
-      <c r="J73" s="39">
+      <c r="J73" s="45">
         <v>0.91502187499999998</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="38">
+      <c r="C74" s="43">
         <v>88.828357499999996</v>
       </c>
-      <c r="D74" s="38">
+      <c r="D74" s="44">
         <v>86.803517499999998</v>
       </c>
-      <c r="E74" s="38">
+      <c r="E74" s="44">
         <v>90.795557500000001</v>
       </c>
-      <c r="F74" s="39">
+      <c r="F74" s="45">
         <v>0.94543500000000003</v>
       </c>
-      <c r="G74" s="38">
+      <c r="G74" s="43">
         <v>71.922967499999999</v>
       </c>
-      <c r="H74" s="38">
+      <c r="H74" s="44">
         <v>63.873127500000002</v>
       </c>
-      <c r="I74" s="38">
+      <c r="I74" s="44">
         <v>80.133245000000002</v>
       </c>
-      <c r="J74" s="39">
+      <c r="J74" s="45">
         <v>0.78907000000000005</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="33" t="s">
+      <c r="A75" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="41">
+      <c r="C75" s="47">
         <v>80.927958000000004</v>
       </c>
-      <c r="D75" s="41">
+      <c r="D75" s="48">
         <v>76.483115999999995</v>
       </c>
-      <c r="E75" s="41">
+      <c r="E75" s="48">
         <v>85.734070000000003</v>
       </c>
-      <c r="F75" s="42">
+      <c r="F75" s="49">
         <v>0.87815799999999999</v>
       </c>
-      <c r="G75" s="41">
+      <c r="G75" s="47">
         <v>70.374725999999995</v>
       </c>
-      <c r="H75" s="41">
+      <c r="H75" s="48">
         <v>61.205762</v>
       </c>
-      <c r="I75" s="41">
+      <c r="I75" s="48">
         <v>80.517138000000003</v>
       </c>
-      <c r="J75" s="42">
+      <c r="J75" s="49">
         <v>0.73624800000000001</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="33" t="s">
+      <c r="A76" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="37" t="s">
+      <c r="B76" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="38">
+      <c r="C76" s="51">
         <v>97.143215999999995</v>
       </c>
-      <c r="D76" s="38">
+      <c r="D76" s="52">
         <v>97.114168000000006</v>
       </c>
-      <c r="E76" s="38">
+      <c r="E76" s="52">
         <v>97.176111000000006</v>
       </c>
-      <c r="F76" s="39">
+      <c r="F76" s="53">
         <v>0.99925299999999995</v>
       </c>
-      <c r="G76" s="38">
+      <c r="G76" s="51">
         <v>92.572111000000007</v>
       </c>
-      <c r="H76" s="38">
+      <c r="H76" s="52">
         <v>90.517522</v>
       </c>
-      <c r="I76" s="38">
+      <c r="I76" s="52">
         <v>94.740992000000006</v>
       </c>
-      <c r="J76" s="39">
+      <c r="J76" s="53">
         <v>0.95387200000000005</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="37" t="s">
+      <c r="B77" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="38">
+      <c r="C77" s="43">
         <v>98.841070000000002</v>
       </c>
-      <c r="D77" s="38">
+      <c r="D77" s="44">
         <v>98.987736666666706</v>
       </c>
-      <c r="E77" s="38">
+      <c r="E77" s="44">
         <v>98.698756666666696</v>
       </c>
-      <c r="F77" s="39">
+      <c r="F77" s="45">
         <v>1.0029224999999999</v>
       </c>
-      <c r="G77" s="38">
+      <c r="G77" s="43">
         <v>94.609506666666704</v>
       </c>
-      <c r="H77" s="38">
+      <c r="H77" s="44">
         <v>93.830447500000005</v>
       </c>
-      <c r="I77" s="38">
+      <c r="I77" s="44">
         <v>95.413752500000001</v>
       </c>
-      <c r="J77" s="39">
+      <c r="J77" s="45">
         <v>0.98342499999999999</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B78" s="37" t="s">
+      <c r="B78" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="38">
+      <c r="C78" s="43">
         <v>99.502804444444493</v>
       </c>
-      <c r="D78" s="38">
+      <c r="D78" s="44">
         <v>99.581906666666697</v>
       </c>
-      <c r="E78" s="38">
+      <c r="E78" s="44">
         <v>99.448632222222301</v>
       </c>
-      <c r="F78" s="39">
+      <c r="F78" s="45">
         <v>1.0013377777777801</v>
       </c>
-      <c r="G78" s="38">
+      <c r="G78" s="43">
         <v>98.206751111111203</v>
       </c>
-      <c r="H78" s="38">
+      <c r="H78" s="44">
         <v>98.091163333333398</v>
       </c>
-      <c r="I78" s="38">
+      <c r="I78" s="44">
         <v>98.341725555555598</v>
       </c>
-      <c r="J78" s="39">
+      <c r="J78" s="45">
         <v>0.99752666666667</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="41">
+      <c r="C79" s="47">
         <v>99.436281666666702</v>
       </c>
-      <c r="D79" s="41">
+      <c r="D79" s="48">
         <v>99.507579166666702</v>
       </c>
-      <c r="E79" s="41">
+      <c r="E79" s="48">
         <v>99.382738333333407</v>
       </c>
-      <c r="F79" s="42">
+      <c r="F79" s="49">
         <v>1.0012558333333299</v>
       </c>
-      <c r="G79" s="41">
+      <c r="G79" s="47">
         <v>97.700460833333395</v>
       </c>
-      <c r="H79" s="41">
+      <c r="H79" s="48">
         <v>97.273721666666702</v>
       </c>
-      <c r="I79" s="41">
+      <c r="I79" s="48">
         <v>98.146425833333296</v>
       </c>
-      <c r="J79" s="42">
+      <c r="J79" s="49">
         <v>0.99112333333333003</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="37" t="s">
+      <c r="B80" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="38">
+      <c r="C80" s="51">
         <v>76.821947499999993</v>
       </c>
-      <c r="D80" s="38">
+      <c r="D80" s="52">
         <v>73.021207500000003</v>
       </c>
-      <c r="E80" s="38">
+      <c r="E80" s="52">
         <v>80.841864999999999</v>
       </c>
-      <c r="F80" s="39">
+      <c r="F80" s="53">
         <v>0.87322</v>
       </c>
-      <c r="G80" s="38">
+      <c r="G80" s="51">
         <v>67.127413750000002</v>
       </c>
-      <c r="H80" s="38">
+      <c r="H80" s="52">
         <v>59.847653749999999</v>
       </c>
-      <c r="I80" s="38">
+      <c r="I80" s="52">
         <v>74.6688075</v>
       </c>
-      <c r="J80" s="39">
+      <c r="J80" s="53">
         <v>0.76590749999999996</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="33" t="s">
+      <c r="A81" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="37" t="s">
+      <c r="B81" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="38">
+      <c r="C81" s="43">
         <v>97.758459999999999</v>
       </c>
-      <c r="D81" s="38">
+      <c r="D81" s="44">
         <v>97.938018888888905</v>
       </c>
-      <c r="E81" s="38">
+      <c r="E81" s="44">
         <v>97.660330555555603</v>
       </c>
-      <c r="F81" s="39">
+      <c r="F81" s="45">
         <v>1.0029744444444399</v>
       </c>
-      <c r="G81" s="38">
+      <c r="G81" s="43">
         <v>94.470420555555606</v>
       </c>
-      <c r="H81" s="38">
+      <c r="H81" s="44">
         <v>93.184627777777806</v>
       </c>
-      <c r="I81" s="38">
+      <c r="I81" s="44">
         <v>95.640533888888896</v>
       </c>
-      <c r="J81" s="39">
+      <c r="J81" s="45">
         <v>0.97235333333332996</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="33" t="s">
+      <c r="A82" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="37" t="s">
+      <c r="B82" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="38">
+      <c r="C82" s="43">
         <v>78.930676190476206</v>
       </c>
-      <c r="D82" s="38">
+      <c r="D82" s="44">
         <v>76.631984523809606</v>
       </c>
-      <c r="E82" s="38">
+      <c r="E82" s="44">
         <v>81.511925000000005</v>
       </c>
-      <c r="F82" s="39">
+      <c r="F82" s="45">
         <v>0.92490952380951996</v>
       </c>
-      <c r="G82" s="38">
+      <c r="G82" s="43">
         <v>67.407523809523795</v>
       </c>
-      <c r="H82" s="38">
+      <c r="H82" s="44">
         <v>61.431334523809497</v>
       </c>
-      <c r="I82" s="38">
+      <c r="I82" s="44">
         <v>73.840834047618998</v>
       </c>
-      <c r="J82" s="39">
+      <c r="J82" s="45">
         <v>0.80382880952380997</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="33" t="s">
+      <c r="A83" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="40" t="s">
+      <c r="B83" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="41">
+      <c r="C83" s="47">
         <v>97.038487500000002</v>
       </c>
-      <c r="D83" s="41">
+      <c r="D83" s="48">
         <v>96.830372941176506</v>
       </c>
-      <c r="E83" s="41">
+      <c r="E83" s="48">
         <v>97.262228823529497</v>
       </c>
-      <c r="F83" s="42">
+      <c r="F83" s="49">
         <v>0.99335323529412001</v>
       </c>
-      <c r="G83" s="41">
+      <c r="G83" s="47">
         <v>92.191270000000003</v>
       </c>
-      <c r="H83" s="41">
+      <c r="H83" s="48">
         <v>90.748897681159406</v>
       </c>
-      <c r="I83" s="41">
+      <c r="I83" s="48">
         <v>93.683205217391304</v>
       </c>
-      <c r="J83" s="42">
+      <c r="J83" s="49">
         <v>0.96146565217391</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="33" t="s">
+      <c r="A84" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="37" t="s">
+      <c r="B84" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="38">
+      <c r="C84" s="51">
         <v>66.760105909090896</v>
       </c>
-      <c r="D84" s="38">
+      <c r="D84" s="52">
         <v>62.589125454545503</v>
       </c>
-      <c r="E84" s="38">
+      <c r="E84" s="52">
         <v>71.439054545454596</v>
       </c>
-      <c r="F84" s="39">
+      <c r="F84" s="53">
         <v>0.85501590909090996</v>
       </c>
-      <c r="G84" s="38">
+      <c r="G84" s="51">
         <v>53.503981818181799</v>
       </c>
-      <c r="H84" s="38">
+      <c r="H84" s="52">
         <v>45.015509090909099</v>
       </c>
-      <c r="I84" s="38">
+      <c r="I84" s="52">
         <v>62.809893181818197</v>
       </c>
-      <c r="J84" s="39">
+      <c r="J84" s="53">
         <v>0.69209363636363996</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="38">
+      <c r="C85" s="43">
         <v>55.929400000000001</v>
       </c>
-      <c r="D85" s="38">
+      <c r="D85" s="44">
         <v>41.593719999999998</v>
       </c>
-      <c r="E85" s="38">
+      <c r="E85" s="44">
         <v>71.243939999999995</v>
       </c>
-      <c r="F85" s="39">
+      <c r="F85" s="45">
         <v>0.58382000000000001</v>
       </c>
-      <c r="G85" s="38">
+      <c r="G85" s="43">
         <v>37.266039999999997</v>
       </c>
-      <c r="H85" s="38">
+      <c r="H85" s="44">
         <v>22.60078</v>
       </c>
-      <c r="I85" s="38">
+      <c r="I85" s="44">
         <v>52.063429999999997</v>
       </c>
-      <c r="J85" s="39">
+      <c r="J85" s="45">
         <v>0.43409999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="38">
+      <c r="C86" s="43">
         <v>85.546147272727296</v>
       </c>
-      <c r="D86" s="38">
+      <c r="D86" s="44">
         <v>83.690086363636397</v>
       </c>
-      <c r="E86" s="38">
+      <c r="E86" s="44">
         <v>87.513012272727295</v>
       </c>
-      <c r="F86" s="39">
+      <c r="F86" s="45">
         <v>0.95020090909091004</v>
       </c>
-      <c r="G86" s="38">
+      <c r="G86" s="43">
         <v>74.809728636363701</v>
       </c>
-      <c r="H86" s="38">
+      <c r="H86" s="44">
         <v>69.363396363636397</v>
       </c>
-      <c r="I86" s="38">
+      <c r="I86" s="44">
         <v>80.405974999999998</v>
       </c>
-      <c r="J86" s="39">
+      <c r="J86" s="45">
         <v>0.85094454545455001</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="33" t="s">
+      <c r="A87" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="37" t="s">
+      <c r="B87" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="38">
+      <c r="C87" s="43">
         <v>94.780648461538505</v>
       </c>
-      <c r="D87" s="38">
+      <c r="D87" s="44">
         <v>94.583954615384599</v>
       </c>
-      <c r="E87" s="38">
+      <c r="E87" s="44">
         <v>94.962315769230798</v>
       </c>
-      <c r="F87" s="39">
+      <c r="F87" s="45">
         <v>0.99485384615384997</v>
       </c>
-      <c r="G87" s="38">
+      <c r="G87" s="43">
         <v>85.748264615384599</v>
       </c>
-      <c r="H87" s="38">
+      <c r="H87" s="44">
         <v>82.861538461538501</v>
       </c>
-      <c r="I87" s="38">
+      <c r="I87" s="44">
         <v>88.732171153846195</v>
       </c>
-      <c r="J87" s="39">
+      <c r="J87" s="45">
         <v>0.92645076923076997</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" s="33" t="s">
+      <c r="A88" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B88" s="37" t="s">
+      <c r="B88" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="38">
+      <c r="C88" s="43">
         <v>95.971282000000002</v>
       </c>
-      <c r="D88" s="38">
+      <c r="D88" s="44">
         <v>96.994069999999994</v>
       </c>
-      <c r="E88" s="38">
+      <c r="E88" s="44">
         <v>94.946060000000003</v>
       </c>
-      <c r="F88" s="39">
+      <c r="F88" s="45">
         <v>1.02135</v>
       </c>
-      <c r="G88" s="38">
+      <c r="G88" s="43">
         <v>89.873193999999998</v>
       </c>
-      <c r="H88" s="38">
+      <c r="H88" s="44">
         <v>89.242232000000001</v>
       </c>
-      <c r="I88" s="38">
+      <c r="I88" s="44">
         <v>90.500926000000007</v>
       </c>
-      <c r="J88" s="39">
+      <c r="J88" s="45">
         <v>0.98629800000000001</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="33" t="s">
+      <c r="A89" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="37" t="s">
+      <c r="B89" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="38">
+      <c r="C89" s="43">
         <v>98.890513333333402</v>
       </c>
-      <c r="D89" s="38">
+      <c r="D89" s="44">
         <v>98.983066666666701</v>
       </c>
-      <c r="E89" s="38">
+      <c r="E89" s="44">
         <v>98.804335897436005</v>
       </c>
-      <c r="F89" s="39">
+      <c r="F89" s="45">
         <v>1.0017630769230801</v>
       </c>
-      <c r="G89" s="38">
+      <c r="G89" s="43">
         <v>96.078867692307696</v>
       </c>
-      <c r="H89" s="38">
+      <c r="H89" s="44">
         <v>95.428970256410295</v>
       </c>
-      <c r="I89" s="38">
+      <c r="I89" s="44">
         <v>96.743538461538506</v>
       </c>
-      <c r="J89" s="39">
+      <c r="J89" s="45">
         <v>0.98606794871795</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="33" t="s">
+      <c r="A90" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B90" s="40" t="s">
+      <c r="B90" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="41">
+      <c r="C90" s="47">
         <v>99.081181999999998</v>
       </c>
-      <c r="D90" s="41">
+      <c r="D90" s="48">
         <v>99.337048999999993</v>
       </c>
-      <c r="E90" s="41">
+      <c r="E90" s="48">
         <v>98.910116000000102</v>
       </c>
-      <c r="F90" s="42">
+      <c r="F90" s="49">
         <v>1.0043325000000001</v>
       </c>
-      <c r="G90" s="41">
+      <c r="G90" s="47">
         <v>97.457574285714301</v>
       </c>
-      <c r="H90" s="41">
+      <c r="H90" s="48">
         <v>97.114433809523803</v>
       </c>
-      <c r="I90" s="41">
+      <c r="I90" s="48">
         <v>97.7116923809524</v>
       </c>
-      <c r="J90" s="42">
+      <c r="J90" s="49">
         <v>0.99395047619048005</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="37" t="s">
+      <c r="B91" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="38">
+      <c r="C91" s="51">
         <v>70.356761612903199</v>
       </c>
-      <c r="D91" s="38">
+      <c r="D91" s="52">
         <v>66.649946774193594</v>
       </c>
-      <c r="E91" s="38">
+      <c r="E91" s="52">
         <v>74.449295161290294</v>
       </c>
-      <c r="F91" s="39">
+      <c r="F91" s="53">
         <v>0.87564096774194</v>
       </c>
-      <c r="G91" s="38">
+      <c r="G91" s="51">
         <v>57.541360322580601</v>
       </c>
-      <c r="H91" s="38">
+      <c r="H91" s="52">
         <v>49.727654516129</v>
       </c>
-      <c r="I91" s="38">
+      <c r="I91" s="52">
         <v>66.022259354838695</v>
       </c>
-      <c r="J91" s="39">
+      <c r="J91" s="53">
         <v>0.72618064516128999</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="37" t="s">
+      <c r="B92" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="38">
+      <c r="C92" s="43">
         <v>86.944335555555597</v>
       </c>
-      <c r="D92" s="38">
+      <c r="D92" s="44">
         <v>85.237738888888899</v>
       </c>
-      <c r="E92" s="38">
+      <c r="E92" s="44">
         <v>88.784855555555595</v>
       </c>
-      <c r="F92" s="39">
+      <c r="F92" s="45">
         <v>0.95121111111111001</v>
       </c>
-      <c r="G92" s="38">
+      <c r="G92" s="43">
         <v>70.073353333333401</v>
       </c>
-      <c r="H92" s="38">
+      <c r="H92" s="44">
         <v>63.846510000000002</v>
       </c>
-      <c r="I92" s="38">
+      <c r="I92" s="44">
         <v>76.613816666666693</v>
       </c>
-      <c r="J92" s="39">
+      <c r="J92" s="45">
         <v>0.81668444444443999</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="37" t="s">
+      <c r="B93" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="38">
+      <c r="C93" s="43">
         <v>88.779771666666704</v>
       </c>
-      <c r="D93" s="38">
+      <c r="D93" s="44">
         <v>87.266076666666706</v>
       </c>
-      <c r="E93" s="38">
+      <c r="E93" s="44">
         <v>90.347531666666697</v>
       </c>
-      <c r="F93" s="39">
+      <c r="F93" s="45">
         <v>0.95480166666666999</v>
       </c>
-      <c r="G93" s="38">
+      <c r="G93" s="43">
         <v>78.533034999999998</v>
       </c>
-      <c r="H93" s="38">
+      <c r="H93" s="44">
         <v>73.499904999999998</v>
       </c>
-      <c r="I93" s="38">
+      <c r="I93" s="44">
         <v>83.904233333333394</v>
       </c>
-      <c r="J93" s="39">
+      <c r="J93" s="45">
         <v>0.85114000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="37" t="s">
+      <c r="B94" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="38">
+      <c r="C94" s="43">
         <v>96.545028666666695</v>
       </c>
-      <c r="D94" s="38">
+      <c r="D94" s="44">
         <v>96.897270666666699</v>
       </c>
-      <c r="E94" s="38">
+      <c r="E94" s="44">
         <v>96.208965333333396</v>
       </c>
-      <c r="F94" s="39">
+      <c r="F94" s="45">
         <v>1.0071333333333301</v>
       </c>
-      <c r="G94" s="38">
+      <c r="G94" s="43">
         <v>91.649180625</v>
       </c>
-      <c r="H94" s="38">
+      <c r="H94" s="44">
         <v>91.259870000000006</v>
       </c>
-      <c r="I94" s="38">
+      <c r="I94" s="44">
         <v>92.042691875000003</v>
       </c>
-      <c r="J94" s="39">
+      <c r="J94" s="45">
         <v>0.98807562500000001</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="33" t="s">
+      <c r="A95" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B95" s="37" t="s">
+      <c r="B95" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="38">
+      <c r="C95" s="43">
         <v>71.083210625000007</v>
       </c>
-      <c r="D95" s="38">
+      <c r="D95" s="44">
         <v>69.436014374999999</v>
       </c>
-      <c r="E95" s="38">
+      <c r="E95" s="44">
         <v>72.943344999999994</v>
       </c>
-      <c r="F95" s="39">
+      <c r="F95" s="45">
         <v>0.91419312500000005</v>
       </c>
-      <c r="G95" s="38">
+      <c r="G95" s="43">
         <v>59.921229375000003</v>
       </c>
-      <c r="H95" s="38">
+      <c r="H95" s="44">
         <v>55.108016249999999</v>
       </c>
-      <c r="I95" s="38">
+      <c r="I95" s="44">
         <v>65.109941250000006</v>
       </c>
-      <c r="J95" s="39">
+      <c r="J95" s="45">
         <v>0.79337500000000005</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="33" t="s">
+      <c r="A96" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B96" s="40" t="s">
+      <c r="B96" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="41">
+      <c r="C96" s="47">
         <v>95.565889374999998</v>
       </c>
-      <c r="D96" s="41">
+      <c r="D96" s="48">
         <v>94.462427500000004</v>
       </c>
-      <c r="E96" s="41">
+      <c r="E96" s="48">
         <v>96.73821375</v>
       </c>
-      <c r="F96" s="42">
+      <c r="F96" s="49">
         <v>0.96947749999999999</v>
       </c>
-      <c r="G96" s="41">
+      <c r="G96" s="47">
         <v>89.922199375000005</v>
       </c>
-      <c r="H96" s="41">
+      <c r="H96" s="48">
         <v>87.222699375000005</v>
       </c>
-      <c r="I96" s="41">
+      <c r="I96" s="48">
         <v>92.731848749999997</v>
       </c>
-      <c r="J96" s="42">
+      <c r="J96" s="49">
         <v>0.92005812499999995</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A97" s="33" t="s">
+      <c r="A97" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="37" t="s">
+      <c r="B97" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="C97" s="38">
+      <c r="C97" s="51">
         <v>72.513323939393999</v>
       </c>
-      <c r="D97" s="38">
+      <c r="D97" s="52">
         <v>68.931875757575796</v>
       </c>
-      <c r="E97" s="38">
+      <c r="E97" s="52">
         <v>76.515226666666706</v>
       </c>
-      <c r="F97" s="39">
+      <c r="F97" s="53">
         <v>0.88217484848484995</v>
       </c>
-      <c r="G97" s="38">
+      <c r="G97" s="51">
         <v>61.493047878787898</v>
       </c>
-      <c r="H97" s="38">
+      <c r="H97" s="52">
         <v>54.460330606060602</v>
       </c>
-      <c r="I97" s="38">
+      <c r="I97" s="52">
         <v>69.090565757575803</v>
       </c>
-      <c r="J97" s="39">
+      <c r="J97" s="53">
         <v>0.75821696969696994</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="33" t="s">
+      <c r="A98" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B98" s="40" t="s">
+      <c r="B98" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="C98" s="41">
+      <c r="C98" s="47">
         <v>89.907127857142896</v>
       </c>
-      <c r="D98" s="41">
+      <c r="D98" s="48">
         <v>88.405255714285701</v>
       </c>
-      <c r="E98" s="41">
+      <c r="E98" s="48">
         <v>91.454587857142897</v>
       </c>
-      <c r="F98" s="42">
+      <c r="F98" s="49">
         <v>0.95826500000000003</v>
       </c>
-      <c r="G98" s="41">
+      <c r="G98" s="47">
         <v>79.009045</v>
       </c>
-      <c r="H98" s="41">
+      <c r="H98" s="48">
         <v>74.708944285714296</v>
       </c>
-      <c r="I98" s="41">
+      <c r="I98" s="48">
         <v>83.412341428571395</v>
       </c>
-      <c r="J98" s="42">
+      <c r="J98" s="49">
         <v>0.87758857142857005</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99" s="43"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="45"/>
+      <c r="A99" s="54"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="56"/>
+      <c r="J99" s="56"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="C100" s="57"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="57"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="57"/>
+      <c r="J100" s="57"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="57"/>
+      <c r="J101" s="57"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="C102" s="57"/>
+      <c r="D102" s="57"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="57"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="57"/>
+      <c r="J102" s="57"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="C103" s="57"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="57"/>
+      <c r="J103" s="57"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="C104" s="57"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="57"/>
+      <c r="G104" s="57"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="57"/>
+      <c r="J104" s="57"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="57"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="57"/>
+      <c r="J105" s="57"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C106" s="57"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="57"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="57"/>
+      <c r="J106" s="57"/>
     </row>
     <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="47" t="s">
+      <c r="B107" s="58" t="s">
         <v>168</v>
       </c>
+      <c r="C107" s="57"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="57"/>
+      <c r="J107" s="57"/>
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="47"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="57"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="57"/>
+      <c r="J108" s="57"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="C109" s="57"/>
+      <c r="D109" s="57"/>
+      <c r="E109" s="57"/>
+      <c r="F109" s="57"/>
+      <c r="G109" s="57"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="57"/>
+      <c r="J109" s="57"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="C110" s="57"/>
+      <c r="D110" s="57"/>
+      <c r="E110" s="57"/>
+      <c r="F110" s="57"/>
+      <c r="G110" s="57"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="57"/>
+      <c r="J110" s="57"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="2"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="57"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="57"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="57"/>
+      <c r="J111" s="57"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="C112" s="57"/>
+      <c r="D112" s="57"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="57"/>
+      <c r="G112" s="57"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="57"/>
+      <c r="J112" s="57"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="C113" s="57"/>
+      <c r="D113" s="57"/>
+      <c r="E113" s="57"/>
+      <c r="F113" s="57"/>
+      <c r="G113" s="57"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="57"/>
+      <c r="J113" s="57"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="2"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="57"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="57"/>
+      <c r="G114" s="57"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="57"/>
+      <c r="J114" s="57"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A1A01E49-C9F3-4B3F-AA52-36AD6EE11EE5}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{103F1397-3DAE-4920-AA81-0AF7D2129055}"/>
-    <hyperlink ref="B107" r:id="rId1" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{BFB66855-04DE-4291-B0FD-F4B62C05AB4C}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{9C1779AB-36D9-418A-9BB1-D5AA3CF38150}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{8D7CD7E9-C9B5-4A73-9F65-5CC5A6E7F959}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{BE2C1F64-2A14-4546-B971-4188890E6F1D}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{2F11E455-064D-4CA2-960C-5215EE653254}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{C9937B42-491A-4B78-B851-186F3C21317F}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CF2695D6-267B-4D63-BDD3-5E7481F619F0}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{FA091088-AE28-4CAD-81B3-665F0B1C6348}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab06.xlsx
+++ b/AfDD_2023_Annex_Table_Tab06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7704F39-23BC-487C-86FC-A8A2E334B46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5150C6FE-E542-4F8B-913E-5E921571C1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{99749D69-88A7-4214-A07E-A89C59CD12E7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7214CC9E-5C5E-46D6-A179-19E59CA01C61}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -48,28 +48,28 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Youth literacy rate, population 15-24 years, both sexes (%, most recent measure 2012-21)</t>
-  </si>
-  <si>
-    <t>Youth literacy rate, population 15-24 years, female (%, most recent measure 2012-21)</t>
-  </si>
-  <si>
-    <t>Youth literacy rate, population 15-24 years, male (%, most recent measure 2012-21)</t>
-  </si>
-  <si>
-    <t>Youth literacy rate, population 15-24 years, adjusted gender parity index (GPIA, most recent measure 2012-21)</t>
-  </si>
-  <si>
-    <t>Adult literacy rate, population 15+ years, both sexes (%, most recent measure 2012-21)</t>
-  </si>
-  <si>
-    <t>Adult literacy rate, population 15+ years, female (%, most recent measure 2012-21)</t>
-  </si>
-  <si>
-    <t>Adult literacy rate, population 15+ years, male (%, most recent measure 2012-21)</t>
-  </si>
-  <si>
-    <t>Adult literacy rate, population 15+ years, adjusted gender parity index (GPIA, most recent measure 2012-21)</t>
+    <t>Youth literacy rate, population 15-24 years, both sexes (%, most recent measure 2013-22)</t>
+  </si>
+  <si>
+    <t>Youth literacy rate, population 15-24 years, female (%, most recent measure 2013-22)</t>
+  </si>
+  <si>
+    <t>Youth literacy rate, population 15-24 years, male (%, most recent measure 2013-22)</t>
+  </si>
+  <si>
+    <t>Youth literacy rate, population 15-24 years, adjusted gender parity index (GPIA, most recent measure 2013-22)</t>
+  </si>
+  <si>
+    <t>Adult literacy rate, population 15+ years, both sexes (%, most recent measure 2013-22)</t>
+  </si>
+  <si>
+    <t>Adult literacy rate, population 15+ years, female (%, most recent measure 2013-22)</t>
+  </si>
+  <si>
+    <t>Adult literacy rate, population 15+ years, male (%, most recent measure 2013-22)</t>
+  </si>
+  <si>
+    <t>Adult literacy rate, population 15+ years, adjusted gender parity index (GPIA, most recent measure 2013-22)</t>
   </si>
   <si>
     <t>AGO</t>
@@ -537,7 +537,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: UNESCO Institute for Statistics (UIS) Database (retrieved 17/11/2021).</t>
@@ -1381,7 +1381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02939AC-91A4-4A5F-A916-9BCB53A5F413}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8740373-0F4A-450A-AB54-DD8671CCAD4E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3371,28 +3371,28 @@
         <v>127</v>
       </c>
       <c r="C63" s="38">
-        <v>97.189179418604596</v>
+        <v>97.124107380952395</v>
       </c>
       <c r="D63" s="39">
-        <v>97.062205813953497</v>
+        <v>96.993711666666698</v>
       </c>
       <c r="E63" s="39">
-        <v>97.345552441860505</v>
+        <v>97.284585357142902</v>
       </c>
       <c r="F63" s="40">
-        <v>0.99536697674418995</v>
+        <v>0.99524880952381001</v>
       </c>
       <c r="G63" s="38">
-        <v>92.662818390804603</v>
+        <v>92.493392</v>
       </c>
       <c r="H63" s="39">
-        <v>91.252841839080503</v>
+        <v>91.049872470588198</v>
       </c>
       <c r="I63" s="39">
-        <v>94.088169770115002</v>
+        <v>93.952597294117595</v>
       </c>
       <c r="J63" s="40">
-        <v>0.96371827586207004</v>
+        <v>0.96285776470588003</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
@@ -3403,28 +3403,28 @@
         <v>128</v>
       </c>
       <c r="C64" s="34">
-        <v>97.648060400000105</v>
+        <v>97.5552858333334</v>
       </c>
       <c r="D64" s="35">
-        <v>97.938130000000001</v>
+        <v>97.856585416666704</v>
       </c>
       <c r="E64" s="35">
-        <v>97.368550400000103</v>
+        <v>97.264937083333393</v>
       </c>
       <c r="F64" s="36">
-        <v>1.0057904</v>
+        <v>1.0060150000000001</v>
       </c>
       <c r="G64" s="34">
-        <v>92.527104615384602</v>
+        <v>92.2380876</v>
       </c>
       <c r="H64" s="35">
-        <v>91.980052307692304</v>
+        <v>91.667259200000004</v>
       </c>
       <c r="I64" s="35">
-        <v>93.119226923076894</v>
+        <v>92.8557536</v>
       </c>
       <c r="J64" s="36">
-        <v>0.98642076923077004</v>
+        <v>0.98584000000000005</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
@@ -3438,7 +3438,7 @@
         <v>94.159400000000005</v>
       </c>
       <c r="D65" s="44">
-        <v>93.293322222222201</v>
+        <v>93.293322222222301</v>
       </c>
       <c r="E65" s="44">
         <v>95.0471537037037</v>
@@ -3467,28 +3467,28 @@
         <v>130</v>
       </c>
       <c r="C66" s="47">
-        <v>90.352451544117699</v>
+        <v>90.209619402985098</v>
       </c>
       <c r="D66" s="48">
-        <v>89.338696397058797</v>
+        <v>89.180483507462696</v>
       </c>
       <c r="E66" s="48">
-        <v>91.484950588235293</v>
+        <v>91.359260746268703</v>
       </c>
       <c r="F66" s="49">
-        <v>0.96642294117646999</v>
+        <v>0.96591686567164003</v>
       </c>
       <c r="G66" s="47">
-        <v>83.429200802919695</v>
+        <v>83.185730592592606</v>
       </c>
       <c r="H66" s="48">
-        <v>80.276602335766498</v>
+        <v>79.986195851851903</v>
       </c>
       <c r="I66" s="48">
-        <v>86.746979999999994</v>
+        <v>86.552861185185193</v>
       </c>
       <c r="J66" s="49">
-        <v>0.9031500729927</v>
+        <v>0.90171096296296005</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
@@ -4011,28 +4011,28 @@
         <v>147</v>
       </c>
       <c r="C83" s="47">
-        <v>97.038487500000002</v>
+        <v>96.951102121212202</v>
       </c>
       <c r="D83" s="48">
-        <v>96.830372941176506</v>
+        <v>96.736173333333397</v>
       </c>
       <c r="E83" s="48">
-        <v>97.262228823529497</v>
+        <v>97.182109393939498</v>
       </c>
       <c r="F83" s="49">
-        <v>0.99335323529412001</v>
+        <v>0.99314181818182001</v>
       </c>
       <c r="G83" s="47">
-        <v>92.191270000000003</v>
+        <v>91.962249999999997</v>
       </c>
       <c r="H83" s="48">
-        <v>90.748897681159406</v>
+        <v>90.476356119402993</v>
       </c>
       <c r="I83" s="48">
-        <v>93.683205217391304</v>
+        <v>93.4991217910448</v>
       </c>
       <c r="J83" s="49">
-        <v>0.96146565217391</v>
+        <v>0.96030671641790999</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
@@ -4139,28 +4139,28 @@
         <v>151</v>
       </c>
       <c r="C87" s="43">
-        <v>94.780648461538505</v>
+        <v>94.573083999999994</v>
       </c>
       <c r="D87" s="44">
-        <v>94.583954615384599</v>
+        <v>94.368003999999999</v>
       </c>
       <c r="E87" s="44">
-        <v>94.962315769230798</v>
+        <v>94.762525600000004</v>
       </c>
       <c r="F87" s="45">
-        <v>0.99485384615384997</v>
+        <v>0.99463760000000001</v>
       </c>
       <c r="G87" s="43">
-        <v>85.748264615384599</v>
+        <v>85.179221200000001</v>
       </c>
       <c r="H87" s="44">
-        <v>82.861538461538501</v>
+        <v>82.177672000000001</v>
       </c>
       <c r="I87" s="44">
-        <v>88.732171153846195</v>
+        <v>88.281700400000005</v>
       </c>
       <c r="J87" s="45">
-        <v>0.92645076923076997</v>
+        <v>0.92352319999999999</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -4203,28 +4203,28 @@
         <v>153</v>
       </c>
       <c r="C89" s="43">
-        <v>98.890513333333402</v>
+        <v>98.864615000000001</v>
       </c>
       <c r="D89" s="44">
-        <v>98.983066666666701</v>
+        <v>98.959063157894803</v>
       </c>
       <c r="E89" s="44">
-        <v>98.804335897436005</v>
+        <v>98.776679736842098</v>
       </c>
       <c r="F89" s="45">
-        <v>1.0017630769230801</v>
+        <v>1.0017989473684199</v>
       </c>
       <c r="G89" s="43">
-        <v>96.078867692307696</v>
+        <v>95.982192368420996</v>
       </c>
       <c r="H89" s="44">
-        <v>95.428970256410295</v>
+        <v>95.313946315789494</v>
       </c>
       <c r="I89" s="44">
-        <v>96.743538461538506</v>
+        <v>96.665577368421097</v>
       </c>
       <c r="J89" s="45">
-        <v>0.98606794871795</v>
+        <v>0.98567657894737004</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4279,7 +4279,7 @@
         <v>0.87564096774194</v>
       </c>
       <c r="G91" s="51">
-        <v>57.541360322580601</v>
+        <v>57.541360322580701</v>
       </c>
       <c r="H91" s="52">
         <v>49.727654516129</v>
@@ -4363,28 +4363,28 @@
         <v>158</v>
       </c>
       <c r="C94" s="43">
-        <v>96.545028666666695</v>
+        <v>96.3071985714286</v>
       </c>
       <c r="D94" s="44">
-        <v>96.897270666666699</v>
+        <v>96.683132857142894</v>
       </c>
       <c r="E94" s="44">
-        <v>96.208965333333396</v>
+        <v>95.948515</v>
       </c>
       <c r="F94" s="45">
-        <v>1.0071333333333301</v>
+        <v>1.00761428571429</v>
       </c>
       <c r="G94" s="43">
-        <v>91.649180625</v>
+        <v>91.108957333333393</v>
       </c>
       <c r="H94" s="44">
-        <v>91.259870000000006</v>
+        <v>90.690535999999994</v>
       </c>
       <c r="I94" s="44">
-        <v>92.042691875000003</v>
+        <v>91.531800666666697</v>
       </c>
       <c r="J94" s="45">
-        <v>0.98807562500000001</v>
+        <v>0.98721800000000004</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
@@ -4712,11 +4712,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{BE2C1F64-2A14-4546-B971-4188890E6F1D}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{2F11E455-064D-4CA2-960C-5215EE653254}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{C9937B42-491A-4B78-B851-186F3C21317F}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CF2695D6-267B-4D63-BDD3-5E7481F619F0}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{FA091088-AE28-4CAD-81B3-665F0B1C6348}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{EED540F0-D6B9-47DE-A206-42EC426BCE60}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F13E0770-3DAE-4E97-9B2B-93A4FB8E2337}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{FC0B2697-18D3-4A44-BF11-66A3CF551114}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{7F47F2E6-6BE2-435E-9B13-964EB8A2FA75}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{266A7C41-0866-4E73-B483-D974494258EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab06.xlsx
+++ b/AfDD_2023_Annex_Table_Tab06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5150C6FE-E542-4F8B-913E-5E921571C1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{661B8222-2D5B-4C43-9776-77DEF5F9DA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7214CC9E-5C5E-46D6-A179-19E59CA01C61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8E22923-3846-4F4C-A590-F22A676069D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab06'!$A$2:$I$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab06'!$A$1:$I$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -261,7 +261,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -393,7 +393,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -1381,7 +1381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8740373-0F4A-450A-AB54-DD8671CCAD4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18E4B7C-3F65-4F27-87C3-4CE5BD1A91E0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2439,31 +2439,31 @@
       <c r="A34" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="28">
         <v>47.900959999999998</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="29">
         <v>47.369199999999999</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="29">
         <v>48.425139999999999</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="30">
         <v>0.97819</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="28">
         <v>34.522759999999998</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="29">
         <v>28.864260000000002</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="29">
         <v>40.264809999999997</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="30">
         <v>0.71686000000000005</v>
       </c>
     </row>
@@ -3175,31 +3175,31 @@
       <c r="A57" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="19">
         <v>75.028750000000002</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="20">
         <v>68.262630000000001</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="20">
         <v>81.580640000000002</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F57" s="21">
         <v>0.83674999999999999</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G57" s="19">
         <v>62.016010000000001</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="20">
         <v>52.656480000000002</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I57" s="20">
         <v>71.255709999999993</v>
       </c>
-      <c r="J57" s="30">
+      <c r="J57" s="21">
         <v>0.73897999999999997</v>
       </c>
     </row>
@@ -3563,28 +3563,28 @@
         <v>133</v>
       </c>
       <c r="C69" s="43">
-        <v>80.932824999999994</v>
+        <v>81.512351428571407</v>
       </c>
       <c r="D69" s="44">
-        <v>80.693501666666705</v>
+        <v>80.553692857142906</v>
       </c>
       <c r="E69" s="44">
-        <v>81.202536666666703</v>
+        <v>82.596598571428601</v>
       </c>
       <c r="F69" s="45">
-        <v>0.99277833333332999</v>
+        <v>0.97614714285713999</v>
       </c>
       <c r="G69" s="43">
-        <v>68.677229999999994</v>
+        <v>69.872294285714304</v>
       </c>
       <c r="H69" s="44">
-        <v>63.600551666666703</v>
+        <v>64.014755714285698</v>
       </c>
       <c r="I69" s="44">
-        <v>74.161558333333403</v>
+        <v>76.2134342857143</v>
       </c>
       <c r="J69" s="45">
-        <v>0.84492166666667001</v>
+        <v>0.83153285714285996</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
@@ -3819,28 +3819,28 @@
         <v>141</v>
       </c>
       <c r="C77" s="43">
-        <v>98.841070000000002</v>
+        <v>98.848484545454596</v>
       </c>
       <c r="D77" s="44">
-        <v>98.987736666666706</v>
+        <v>98.978205454545503</v>
       </c>
       <c r="E77" s="44">
-        <v>98.698756666666696</v>
+        <v>98.722103636363698</v>
       </c>
       <c r="F77" s="45">
-        <v>1.0029224999999999</v>
+        <v>1.00259090909091</v>
       </c>
       <c r="G77" s="43">
-        <v>94.609506666666704</v>
+        <v>94.380635454545498</v>
       </c>
       <c r="H77" s="44">
-        <v>93.830447500000005</v>
+        <v>93.5228781818182</v>
       </c>
       <c r="I77" s="44">
-        <v>95.413752500000001</v>
+        <v>95.265992727272703</v>
       </c>
       <c r="J77" s="45">
-        <v>0.98342499999999999</v>
+        <v>0.98175454545454999</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -3915,28 +3915,28 @@
         <v>144</v>
       </c>
       <c r="C80" s="51">
-        <v>76.821947499999993</v>
+        <v>73.430973750000007</v>
       </c>
       <c r="D80" s="52">
-        <v>73.021207500000003</v>
+        <v>70.409528750000007</v>
       </c>
       <c r="E80" s="52">
-        <v>80.841864999999999</v>
+        <v>76.697427500000003</v>
       </c>
       <c r="F80" s="53">
-        <v>0.87322</v>
+        <v>0.89090000000000003</v>
       </c>
       <c r="G80" s="51">
-        <v>67.127413750000002</v>
+        <v>63.690757499999997</v>
       </c>
       <c r="H80" s="52">
-        <v>59.847653749999999</v>
+        <v>56.873626250000001</v>
       </c>
       <c r="I80" s="52">
-        <v>74.6688075</v>
+        <v>70.794944999999998</v>
       </c>
       <c r="J80" s="53">
-        <v>0.76590749999999996</v>
+        <v>0.76314249999999995</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
@@ -3979,28 +3979,28 @@
         <v>146</v>
       </c>
       <c r="C82" s="43">
-        <v>78.930676190476206</v>
+        <v>79.576575952381006</v>
       </c>
       <c r="D82" s="44">
-        <v>76.631984523809606</v>
+        <v>77.129447142857202</v>
       </c>
       <c r="E82" s="44">
-        <v>81.511925000000005</v>
+        <v>82.301341666666701</v>
       </c>
       <c r="F82" s="45">
-        <v>0.92490952380951996</v>
+        <v>0.92154190476191</v>
       </c>
       <c r="G82" s="43">
-        <v>67.407523809523795</v>
+        <v>68.062124999999995</v>
       </c>
       <c r="H82" s="44">
-        <v>61.431334523809497</v>
+        <v>61.997815952381004</v>
       </c>
       <c r="I82" s="44">
-        <v>73.840834047618998</v>
+        <v>74.578712619047593</v>
       </c>
       <c r="J82" s="45">
-        <v>0.80382880952380997</v>
+        <v>0.80435547619047998</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4017,7 +4017,7 @@
         <v>96.736173333333397</v>
       </c>
       <c r="E83" s="48">
-        <v>97.182109393939498</v>
+        <v>97.182109393939399</v>
       </c>
       <c r="F83" s="49">
         <v>0.99314181818182001</v>
@@ -4043,28 +4043,28 @@
         <v>148</v>
       </c>
       <c r="C84" s="51">
-        <v>66.760105909090896</v>
+        <v>67.861473913043497</v>
       </c>
       <c r="D84" s="52">
-        <v>62.589125454545503</v>
+        <v>63.851693478260898</v>
       </c>
       <c r="E84" s="52">
-        <v>71.439054545454596</v>
+        <v>72.357340869565206</v>
       </c>
       <c r="F84" s="53">
-        <v>0.85501590909090996</v>
+        <v>0.86088217391304001</v>
       </c>
       <c r="G84" s="51">
-        <v>53.503981818181799</v>
+        <v>54.949372173913098</v>
       </c>
       <c r="H84" s="52">
-        <v>45.015509090909099</v>
+        <v>46.670636521739098</v>
       </c>
       <c r="I84" s="52">
-        <v>62.809893181818197</v>
+        <v>64.018209999999996</v>
       </c>
       <c r="J84" s="53">
-        <v>0.69209363636363996</v>
+        <v>0.70187304347825996</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -4107,28 +4107,28 @@
         <v>150</v>
       </c>
       <c r="C86" s="43">
-        <v>85.546147272727296</v>
+        <v>85.234460476190506</v>
       </c>
       <c r="D86" s="44">
-        <v>83.690086363636397</v>
+        <v>83.312081428571503</v>
       </c>
       <c r="E86" s="44">
-        <v>87.513012272727295</v>
+        <v>87.272696666666704</v>
       </c>
       <c r="F86" s="45">
-        <v>0.95020090909091004</v>
+        <v>0.94830857142856995</v>
       </c>
       <c r="G86" s="43">
-        <v>74.809728636363701</v>
+        <v>74.241241428571399</v>
       </c>
       <c r="H86" s="44">
-        <v>69.363396363636397</v>
+        <v>68.710060952380999</v>
       </c>
       <c r="I86" s="44">
-        <v>80.405974999999998</v>
+        <v>79.9204890476191</v>
       </c>
       <c r="J86" s="45">
-        <v>0.85094454545455001</v>
+        <v>0.84779809523810001</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -4139,28 +4139,28 @@
         <v>151</v>
       </c>
       <c r="C87" s="43">
-        <v>94.573083999999994</v>
+        <v>94.772266153846203</v>
       </c>
       <c r="D87" s="44">
-        <v>94.368003999999999</v>
+        <v>94.578426153846195</v>
       </c>
       <c r="E87" s="44">
-        <v>94.762525600000004</v>
+        <v>94.950995384615396</v>
       </c>
       <c r="F87" s="45">
-        <v>0.99463760000000001</v>
+        <v>0.99491192307692</v>
       </c>
       <c r="G87" s="43">
-        <v>85.179221200000001</v>
+        <v>85.559614230769199</v>
       </c>
       <c r="H87" s="44">
-        <v>82.177672000000001</v>
+        <v>82.605646538461599</v>
       </c>
       <c r="I87" s="44">
-        <v>88.281700400000005</v>
+        <v>88.611429615384594</v>
       </c>
       <c r="J87" s="45">
-        <v>0.92352319999999999</v>
+        <v>0.92505499999999996</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -4203,28 +4203,28 @@
         <v>153</v>
       </c>
       <c r="C89" s="43">
-        <v>98.864615000000001</v>
+        <v>98.818251666666697</v>
       </c>
       <c r="D89" s="44">
-        <v>98.959063157894803</v>
+        <v>98.929923333333406</v>
       </c>
       <c r="E89" s="44">
-        <v>98.776679736842098</v>
+        <v>98.715930555555602</v>
       </c>
       <c r="F89" s="45">
-        <v>1.0017989473684199</v>
+        <v>1.00211583333333</v>
       </c>
       <c r="G89" s="43">
-        <v>95.982192368420996</v>
+        <v>95.951861944444403</v>
       </c>
       <c r="H89" s="44">
-        <v>95.313946315789494</v>
+        <v>95.305734722222198</v>
       </c>
       <c r="I89" s="44">
-        <v>96.665577368421097</v>
+        <v>96.611142222222199</v>
       </c>
       <c r="J89" s="45">
-        <v>0.98567657894737004</v>
+        <v>0.98613166666666996</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4235,28 +4235,28 @@
         <v>154</v>
       </c>
       <c r="C90" s="47">
-        <v>99.081181999999998</v>
+        <v>99.108101428571402</v>
       </c>
       <c r="D90" s="48">
-        <v>99.337048999999993</v>
+        <v>99.327102857142904</v>
       </c>
       <c r="E90" s="48">
-        <v>98.910116000000102</v>
+        <v>98.965710000000101</v>
       </c>
       <c r="F90" s="49">
-        <v>1.0043325000000001</v>
+        <v>1.0036700000000001</v>
       </c>
       <c r="G90" s="47">
-        <v>97.457574285714301</v>
+        <v>97.481631818181896</v>
       </c>
       <c r="H90" s="48">
-        <v>97.114433809523803</v>
+        <v>97.137345909090897</v>
       </c>
       <c r="I90" s="48">
-        <v>97.7116923809524</v>
+        <v>97.744622727272699</v>
       </c>
       <c r="J90" s="49">
-        <v>0.99395047619048005</v>
+        <v>0.99384454545455003</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -4282,7 +4282,7 @@
         <v>57.541360322580701</v>
       </c>
       <c r="H91" s="52">
-        <v>49.727654516129</v>
+        <v>49.7276545161291</v>
       </c>
       <c r="I91" s="52">
         <v>66.022259354838695</v>
@@ -4459,28 +4459,28 @@
         <v>161</v>
       </c>
       <c r="C97" s="51">
-        <v>72.513323939393999</v>
+        <v>72.173169705882401</v>
       </c>
       <c r="D97" s="52">
-        <v>68.931875757575796</v>
+        <v>68.432221176470605</v>
       </c>
       <c r="E97" s="52">
-        <v>76.515226666666706</v>
+        <v>76.316578235294102</v>
       </c>
       <c r="F97" s="53">
-        <v>0.88217484848484995</v>
+        <v>0.87812823529411999</v>
       </c>
       <c r="G97" s="51">
-        <v>61.493047878787898</v>
+        <v>60.930381764705899</v>
       </c>
       <c r="H97" s="52">
-        <v>54.460330606060602</v>
+        <v>53.7724282352941</v>
       </c>
       <c r="I97" s="52">
-        <v>69.090565757575803</v>
+        <v>68.646050000000002</v>
       </c>
       <c r="J97" s="53">
-        <v>0.75821696969696994</v>
+        <v>0.75284735294117999</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4491,28 +4491,28 @@
         <v>162</v>
       </c>
       <c r="C98" s="47">
-        <v>89.907127857142896</v>
+        <v>90.127426249999999</v>
       </c>
       <c r="D98" s="48">
-        <v>88.405255714285701</v>
+        <v>88.889005624999996</v>
       </c>
       <c r="E98" s="48">
-        <v>91.454587857142897</v>
+        <v>91.412044374999994</v>
       </c>
       <c r="F98" s="49">
-        <v>0.95826500000000003</v>
+        <v>0.96518187499999997</v>
       </c>
       <c r="G98" s="47">
-        <v>79.009045</v>
+        <v>79.61834125</v>
       </c>
       <c r="H98" s="48">
-        <v>74.708944285714296</v>
+        <v>75.608509999999995</v>
       </c>
       <c r="I98" s="48">
-        <v>83.412341428571395</v>
+        <v>83.711968749999997</v>
       </c>
       <c r="J98" s="49">
-        <v>0.87758857142857005</v>
+        <v>0.88613687500000005</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -4712,11 +4712,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{EED540F0-D6B9-47DE-A206-42EC426BCE60}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F13E0770-3DAE-4E97-9B2B-93A4FB8E2337}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{FC0B2697-18D3-4A44-BF11-66A3CF551114}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{7F47F2E6-6BE2-435E-9B13-964EB8A2FA75}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{266A7C41-0866-4E73-B483-D974494258EB}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C6F616F3-1991-4779-9305-6B69B69BEC0A}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{5D53763F-8DD0-4FAF-AAE5-1F45A9762028}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{38AC1017-9271-4858-B797-BC68E32F85BC}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0EF5126F-AC8E-461D-BAC4-EAC5C1BA9CEE}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{0AFECABE-035C-4636-B2BF-A8634E85DD08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab06.xlsx
+++ b/AfDD_2023_Annex_Table_Tab06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{661B8222-2D5B-4C43-9776-77DEF5F9DA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{669F8665-E666-4605-8016-A18C87583388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C8E22923-3846-4F4C-A590-F22A676069D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8C2E1A42-3E98-492A-B7E7-53E71DEFAF30}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -1381,7 +1381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18E4B7C-3F65-4F27-87C3-4CE5BD1A91E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D47E17-8CEC-4566-90A6-4E9A27077E51}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3342,10 +3342,10 @@
         <v>78.593279600000002</v>
       </c>
       <c r="D62" s="35">
-        <v>76.054260200000002</v>
+        <v>76.054260200000101</v>
       </c>
       <c r="E62" s="35">
-        <v>81.404715400000001</v>
+        <v>81.4047154000001</v>
       </c>
       <c r="F62" s="36">
         <v>0.91663919999999999</v>
@@ -3386,10 +3386,10 @@
         <v>92.493392</v>
       </c>
       <c r="H63" s="39">
-        <v>91.049872470588198</v>
+        <v>91.049872470588298</v>
       </c>
       <c r="I63" s="39">
-        <v>93.952597294117595</v>
+        <v>93.952597294117695</v>
       </c>
       <c r="J63" s="40">
         <v>0.96285776470588003</v>
@@ -3435,7 +3435,7 @@
         <v>129</v>
       </c>
       <c r="C65" s="43">
-        <v>94.159400000000005</v>
+        <v>94.159400000000105</v>
       </c>
       <c r="D65" s="44">
         <v>93.293322222222301</v>
@@ -3447,13 +3447,13 @@
         <v>0.97658814814814998</v>
       </c>
       <c r="G65" s="43">
-        <v>86.209238518518504</v>
+        <v>86.209238518518603</v>
       </c>
       <c r="H65" s="44">
         <v>82.7912888888889</v>
       </c>
       <c r="I65" s="44">
-        <v>89.690868518518499</v>
+        <v>89.690868518518599</v>
       </c>
       <c r="J65" s="45">
         <v>0.90776037037037005</v>
@@ -3467,13 +3467,13 @@
         <v>130</v>
       </c>
       <c r="C66" s="47">
-        <v>90.209619402985098</v>
+        <v>90.209619402984998</v>
       </c>
       <c r="D66" s="48">
         <v>89.180483507462696</v>
       </c>
       <c r="E66" s="48">
-        <v>91.359260746268703</v>
+        <v>91.359260746268603</v>
       </c>
       <c r="F66" s="49">
         <v>0.96591686567164003</v>
@@ -3482,7 +3482,7 @@
         <v>83.185730592592606</v>
       </c>
       <c r="H66" s="48">
-        <v>79.986195851851903</v>
+        <v>79.986195851852003</v>
       </c>
       <c r="I66" s="48">
         <v>86.552861185185193</v>
@@ -3534,10 +3534,10 @@
         <v>69.354127272727297</v>
       </c>
       <c r="D68" s="44">
-        <v>64.433781818181799</v>
+        <v>64.433781818181899</v>
       </c>
       <c r="E68" s="44">
-        <v>74.776758636363596</v>
+        <v>74.776758636363695</v>
       </c>
       <c r="F68" s="45">
         <v>0.83757409090908996</v>
@@ -3627,13 +3627,13 @@
         <v>135</v>
       </c>
       <c r="C71" s="43">
-        <v>67.974553333333404</v>
+        <v>67.974553333333304</v>
       </c>
       <c r="D71" s="44">
         <v>61.969295333333299</v>
       </c>
       <c r="E71" s="44">
-        <v>74.632891333333404</v>
+        <v>74.632891333333305</v>
       </c>
       <c r="F71" s="45">
         <v>0.815496</v>
@@ -3665,7 +3665,7 @@
         <v>77.262730000000005</v>
       </c>
       <c r="E72" s="44">
-        <v>77.4485733333334</v>
+        <v>77.4485733333333</v>
       </c>
       <c r="F72" s="45">
         <v>0.99612500000000004</v>
@@ -3793,7 +3793,7 @@
         <v>97.114168000000006</v>
       </c>
       <c r="E76" s="52">
-        <v>97.176111000000006</v>
+        <v>97.176111000000105</v>
       </c>
       <c r="F76" s="53">
         <v>0.99925299999999995</v>
@@ -3901,7 +3901,7 @@
         <v>97.273721666666702</v>
       </c>
       <c r="I79" s="48">
-        <v>98.146425833333296</v>
+        <v>98.146425833333396</v>
       </c>
       <c r="J79" s="49">
         <v>0.99112333333333003</v>
@@ -3956,10 +3956,10 @@
         <v>97.660330555555603</v>
       </c>
       <c r="F81" s="45">
-        <v>1.0029744444444399</v>
+        <v>1.0029744444444499</v>
       </c>
       <c r="G81" s="43">
-        <v>94.470420555555606</v>
+        <v>94.470420555555506</v>
       </c>
       <c r="H81" s="44">
         <v>93.184627777777806</v>
@@ -3988,7 +3988,7 @@
         <v>82.301341666666701</v>
       </c>
       <c r="F82" s="45">
-        <v>0.92154190476191</v>
+        <v>0.92154190476190001</v>
       </c>
       <c r="G82" s="43">
         <v>68.062124999999995</v>
@@ -3997,7 +3997,7 @@
         <v>61.997815952381004</v>
       </c>
       <c r="I82" s="44">
-        <v>74.578712619047593</v>
+        <v>74.578712619047707</v>
       </c>
       <c r="J82" s="45">
         <v>0.80435547619047998</v>
@@ -4014,16 +4014,16 @@
         <v>96.951102121212202</v>
       </c>
       <c r="D83" s="48">
-        <v>96.736173333333397</v>
+        <v>96.736173333333298</v>
       </c>
       <c r="E83" s="48">
-        <v>97.182109393939399</v>
+        <v>97.182109393939299</v>
       </c>
       <c r="F83" s="49">
         <v>0.99314181818182001</v>
       </c>
       <c r="G83" s="47">
-        <v>91.962249999999997</v>
+        <v>91.962250000000097</v>
       </c>
       <c r="H83" s="48">
         <v>90.476356119402993</v>
@@ -4125,7 +4125,7 @@
         <v>68.710060952380999</v>
       </c>
       <c r="I86" s="44">
-        <v>79.9204890476191</v>
+        <v>79.920489047619</v>
       </c>
       <c r="J86" s="45">
         <v>0.84779809523810001</v>
@@ -4154,7 +4154,7 @@
         <v>85.559614230769199</v>
       </c>
       <c r="H87" s="44">
-        <v>82.605646538461599</v>
+        <v>82.6056465384615</v>
       </c>
       <c r="I87" s="44">
         <v>88.611429615384594</v>
@@ -4215,7 +4215,7 @@
         <v>1.00211583333333</v>
       </c>
       <c r="G89" s="43">
-        <v>95.951861944444403</v>
+        <v>95.951861944444502</v>
       </c>
       <c r="H89" s="44">
         <v>95.305734722222198</v>
@@ -4235,25 +4235,25 @@
         <v>154</v>
       </c>
       <c r="C90" s="47">
-        <v>99.108101428571402</v>
+        <v>99.108101428571501</v>
       </c>
       <c r="D90" s="48">
         <v>99.327102857142904</v>
       </c>
       <c r="E90" s="48">
-        <v>98.965710000000101</v>
+        <v>98.965710000000001</v>
       </c>
       <c r="F90" s="49">
         <v>1.0036700000000001</v>
       </c>
       <c r="G90" s="47">
-        <v>97.481631818181896</v>
+        <v>97.481631818181796</v>
       </c>
       <c r="H90" s="48">
-        <v>97.137345909090897</v>
+        <v>97.137345909090996</v>
       </c>
       <c r="I90" s="48">
-        <v>97.744622727272699</v>
+        <v>97.744622727272798</v>
       </c>
       <c r="J90" s="49">
         <v>0.99384454545455003</v>
@@ -4267,7 +4267,7 @@
         <v>155</v>
       </c>
       <c r="C91" s="51">
-        <v>70.356761612903199</v>
+        <v>70.356761612903298</v>
       </c>
       <c r="D91" s="52">
         <v>66.649946774193594</v>
@@ -4282,7 +4282,7 @@
         <v>57.541360322580701</v>
       </c>
       <c r="H91" s="52">
-        <v>49.7276545161291</v>
+        <v>49.727654516129</v>
       </c>
       <c r="I91" s="52">
         <v>66.022259354838695</v>
@@ -4349,7 +4349,7 @@
         <v>73.499904999999998</v>
       </c>
       <c r="I93" s="44">
-        <v>83.904233333333394</v>
+        <v>83.904233333333295</v>
       </c>
       <c r="J93" s="45">
         <v>0.85114000000000001</v>
@@ -4375,7 +4375,7 @@
         <v>1.00761428571429</v>
       </c>
       <c r="G94" s="43">
-        <v>91.108957333333393</v>
+        <v>91.108957333333294</v>
       </c>
       <c r="H94" s="44">
         <v>90.690535999999994</v>
@@ -4465,7 +4465,7 @@
         <v>68.432221176470605</v>
       </c>
       <c r="E97" s="52">
-        <v>76.316578235294102</v>
+        <v>76.316578235294202</v>
       </c>
       <c r="F97" s="53">
         <v>0.87812823529411999</v>
@@ -4712,11 +4712,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C6F616F3-1991-4779-9305-6B69B69BEC0A}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{5D53763F-8DD0-4FAF-AAE5-1F45A9762028}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{38AC1017-9271-4858-B797-BC68E32F85BC}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0EF5126F-AC8E-461D-BAC4-EAC5C1BA9CEE}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{0AFECABE-035C-4636-B2BF-A8634E85DD08}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{554FF2F4-FEE5-4CCF-86B6-CC790F6B5D44}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{5643935F-229A-43A5-9A11-F51009EBC101}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{6C82DFE7-8F15-4C29-B9E9-2568A454BCF8}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{9E3D748A-0F6D-4D32-87B6-79871F3CAC39}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{041538E8-688F-4D45-B625-5C2DFBD1E601}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab06.xlsx
+++ b/AfDD_2023_Annex_Table_Tab06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{669F8665-E666-4605-8016-A18C87583388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1230A65C-6064-4D98-B351-51486CF13975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8C2E1A42-3E98-492A-B7E7-53E71DEFAF30}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{A2D18C90-39A1-486E-B468-DAD85E7A19B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: UNESCO Institute for Statistics (UIS) Database (retrieved 17/11/2021).</t>
@@ -1381,7 +1381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D47E17-8CEC-4566-90A6-4E9A27077E51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F90A6D7-69CF-4E6F-974D-6D76B13CB3B5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3342,10 +3342,10 @@
         <v>78.593279600000002</v>
       </c>
       <c r="D62" s="35">
-        <v>76.054260200000101</v>
+        <v>76.054260200000002</v>
       </c>
       <c r="E62" s="35">
-        <v>81.4047154000001</v>
+        <v>81.404715400000001</v>
       </c>
       <c r="F62" s="36">
         <v>0.91663919999999999</v>
@@ -3386,10 +3386,10 @@
         <v>92.493392</v>
       </c>
       <c r="H63" s="39">
-        <v>91.049872470588298</v>
+        <v>91.049872470588198</v>
       </c>
       <c r="I63" s="39">
-        <v>93.952597294117695</v>
+        <v>93.952597294117595</v>
       </c>
       <c r="J63" s="40">
         <v>0.96285776470588003</v>
@@ -3435,7 +3435,7 @@
         <v>129</v>
       </c>
       <c r="C65" s="43">
-        <v>94.159400000000105</v>
+        <v>94.159400000000005</v>
       </c>
       <c r="D65" s="44">
         <v>93.293322222222301</v>
@@ -3447,13 +3447,13 @@
         <v>0.97658814814814998</v>
       </c>
       <c r="G65" s="43">
-        <v>86.209238518518603</v>
+        <v>86.209238518518504</v>
       </c>
       <c r="H65" s="44">
         <v>82.7912888888889</v>
       </c>
       <c r="I65" s="44">
-        <v>89.690868518518599</v>
+        <v>89.690868518518499</v>
       </c>
       <c r="J65" s="45">
         <v>0.90776037037037005</v>
@@ -3467,13 +3467,13 @@
         <v>130</v>
       </c>
       <c r="C66" s="47">
-        <v>90.209619402984998</v>
+        <v>90.209619402985098</v>
       </c>
       <c r="D66" s="48">
         <v>89.180483507462696</v>
       </c>
       <c r="E66" s="48">
-        <v>91.359260746268603</v>
+        <v>91.359260746268703</v>
       </c>
       <c r="F66" s="49">
         <v>0.96591686567164003</v>
@@ -3482,7 +3482,7 @@
         <v>83.185730592592606</v>
       </c>
       <c r="H66" s="48">
-        <v>79.986195851852003</v>
+        <v>79.986195851851903</v>
       </c>
       <c r="I66" s="48">
         <v>86.552861185185193</v>
@@ -3534,10 +3534,10 @@
         <v>69.354127272727297</v>
       </c>
       <c r="D68" s="44">
-        <v>64.433781818181899</v>
+        <v>64.433781818181799</v>
       </c>
       <c r="E68" s="44">
-        <v>74.776758636363695</v>
+        <v>74.776758636363596</v>
       </c>
       <c r="F68" s="45">
         <v>0.83757409090908996</v>
@@ -3627,13 +3627,13 @@
         <v>135</v>
       </c>
       <c r="C71" s="43">
-        <v>67.974553333333304</v>
+        <v>67.974553333333404</v>
       </c>
       <c r="D71" s="44">
         <v>61.969295333333299</v>
       </c>
       <c r="E71" s="44">
-        <v>74.632891333333305</v>
+        <v>74.632891333333404</v>
       </c>
       <c r="F71" s="45">
         <v>0.815496</v>
@@ -3665,7 +3665,7 @@
         <v>77.262730000000005</v>
       </c>
       <c r="E72" s="44">
-        <v>77.4485733333333</v>
+        <v>77.4485733333334</v>
       </c>
       <c r="F72" s="45">
         <v>0.99612500000000004</v>
@@ -3793,7 +3793,7 @@
         <v>97.114168000000006</v>
       </c>
       <c r="E76" s="52">
-        <v>97.176111000000105</v>
+        <v>97.176111000000006</v>
       </c>
       <c r="F76" s="53">
         <v>0.99925299999999995</v>
@@ -3901,7 +3901,7 @@
         <v>97.273721666666702</v>
       </c>
       <c r="I79" s="48">
-        <v>98.146425833333396</v>
+        <v>98.146425833333296</v>
       </c>
       <c r="J79" s="49">
         <v>0.99112333333333003</v>
@@ -3956,10 +3956,10 @@
         <v>97.660330555555603</v>
       </c>
       <c r="F81" s="45">
-        <v>1.0029744444444499</v>
+        <v>1.0029744444444399</v>
       </c>
       <c r="G81" s="43">
-        <v>94.470420555555506</v>
+        <v>94.470420555555606</v>
       </c>
       <c r="H81" s="44">
         <v>93.184627777777806</v>
@@ -3988,7 +3988,7 @@
         <v>82.301341666666701</v>
       </c>
       <c r="F82" s="45">
-        <v>0.92154190476190001</v>
+        <v>0.92154190476191</v>
       </c>
       <c r="G82" s="43">
         <v>68.062124999999995</v>
@@ -3997,7 +3997,7 @@
         <v>61.997815952381004</v>
       </c>
       <c r="I82" s="44">
-        <v>74.578712619047707</v>
+        <v>74.578712619047593</v>
       </c>
       <c r="J82" s="45">
         <v>0.80435547619047998</v>
@@ -4014,16 +4014,16 @@
         <v>96.951102121212202</v>
       </c>
       <c r="D83" s="48">
-        <v>96.736173333333298</v>
+        <v>96.736173333333397</v>
       </c>
       <c r="E83" s="48">
-        <v>97.182109393939299</v>
+        <v>97.182109393939399</v>
       </c>
       <c r="F83" s="49">
         <v>0.99314181818182001</v>
       </c>
       <c r="G83" s="47">
-        <v>91.962250000000097</v>
+        <v>91.962249999999997</v>
       </c>
       <c r="H83" s="48">
         <v>90.476356119402993</v>
@@ -4125,7 +4125,7 @@
         <v>68.710060952380999</v>
       </c>
       <c r="I86" s="44">
-        <v>79.920489047619</v>
+        <v>79.9204890476191</v>
       </c>
       <c r="J86" s="45">
         <v>0.84779809523810001</v>
@@ -4154,7 +4154,7 @@
         <v>85.559614230769199</v>
       </c>
       <c r="H87" s="44">
-        <v>82.6056465384615</v>
+        <v>82.605646538461599</v>
       </c>
       <c r="I87" s="44">
         <v>88.611429615384594</v>
@@ -4215,7 +4215,7 @@
         <v>1.00211583333333</v>
       </c>
       <c r="G89" s="43">
-        <v>95.951861944444502</v>
+        <v>95.951861944444403</v>
       </c>
       <c r="H89" s="44">
         <v>95.305734722222198</v>
@@ -4235,25 +4235,25 @@
         <v>154</v>
       </c>
       <c r="C90" s="47">
-        <v>99.108101428571501</v>
+        <v>99.108101428571402</v>
       </c>
       <c r="D90" s="48">
         <v>99.327102857142904</v>
       </c>
       <c r="E90" s="48">
-        <v>98.965710000000001</v>
+        <v>98.965710000000101</v>
       </c>
       <c r="F90" s="49">
         <v>1.0036700000000001</v>
       </c>
       <c r="G90" s="47">
-        <v>97.481631818181796</v>
+        <v>97.481631818181896</v>
       </c>
       <c r="H90" s="48">
-        <v>97.137345909090996</v>
+        <v>97.137345909090897</v>
       </c>
       <c r="I90" s="48">
-        <v>97.744622727272798</v>
+        <v>97.744622727272699</v>
       </c>
       <c r="J90" s="49">
         <v>0.99384454545455003</v>
@@ -4267,7 +4267,7 @@
         <v>155</v>
       </c>
       <c r="C91" s="51">
-        <v>70.356761612903298</v>
+        <v>70.356761612903199</v>
       </c>
       <c r="D91" s="52">
         <v>66.649946774193594</v>
@@ -4282,7 +4282,7 @@
         <v>57.541360322580701</v>
       </c>
       <c r="H91" s="52">
-        <v>49.727654516129</v>
+        <v>49.7276545161291</v>
       </c>
       <c r="I91" s="52">
         <v>66.022259354838695</v>
@@ -4349,7 +4349,7 @@
         <v>73.499904999999998</v>
       </c>
       <c r="I93" s="44">
-        <v>83.904233333333295</v>
+        <v>83.904233333333394</v>
       </c>
       <c r="J93" s="45">
         <v>0.85114000000000001</v>
@@ -4375,7 +4375,7 @@
         <v>1.00761428571429</v>
       </c>
       <c r="G94" s="43">
-        <v>91.108957333333294</v>
+        <v>91.108957333333393</v>
       </c>
       <c r="H94" s="44">
         <v>90.690535999999994</v>
@@ -4459,28 +4459,28 @@
         <v>161</v>
       </c>
       <c r="C97" s="51">
-        <v>72.173169705882401</v>
+        <v>73.668772692307698</v>
       </c>
       <c r="D97" s="52">
-        <v>68.432221176470605</v>
+        <v>69.921260769230798</v>
       </c>
       <c r="E97" s="52">
-        <v>76.316578235294202</v>
+        <v>77.852894230769195</v>
       </c>
       <c r="F97" s="53">
-        <v>0.87812823529411999</v>
+        <v>0.88409269230769005</v>
       </c>
       <c r="G97" s="51">
-        <v>60.930381764705899</v>
+        <v>62.093014615384597</v>
       </c>
       <c r="H97" s="52">
-        <v>53.7724282352941</v>
+        <v>55.0898015384616</v>
       </c>
       <c r="I97" s="52">
-        <v>68.646050000000002</v>
+        <v>69.698148846153899</v>
       </c>
       <c r="J97" s="53">
-        <v>0.75284735294117999</v>
+        <v>0.76230192307692002</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4491,28 +4491,28 @@
         <v>162</v>
       </c>
       <c r="C98" s="47">
-        <v>90.127426249999999</v>
+        <v>93.047320769230794</v>
       </c>
       <c r="D98" s="48">
-        <v>88.889005624999996</v>
+        <v>92.761195384615405</v>
       </c>
       <c r="E98" s="48">
-        <v>91.412044374999994</v>
+        <v>93.315020769230799</v>
       </c>
       <c r="F98" s="49">
-        <v>0.96518187499999997</v>
+        <v>0.99209307692308002</v>
       </c>
       <c r="G98" s="47">
-        <v>79.61834125</v>
+        <v>83.795082307692297</v>
       </c>
       <c r="H98" s="48">
-        <v>75.608509999999995</v>
+        <v>80.6872969230769</v>
       </c>
       <c r="I98" s="48">
-        <v>83.711968749999997</v>
+        <v>86.988493846153901</v>
       </c>
       <c r="J98" s="49">
-        <v>0.88613687500000005</v>
+        <v>0.92114384615385003</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -4712,11 +4712,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{554FF2F4-FEE5-4CCF-86B6-CC790F6B5D44}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{5643935F-229A-43A5-9A11-F51009EBC101}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{6C82DFE7-8F15-4C29-B9E9-2568A454BCF8}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{9E3D748A-0F6D-4D32-87B6-79871F3CAC39}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{041538E8-688F-4D45-B625-5C2DFBD1E601}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{71B1243E-D8EC-4F5B-937B-95F8EA010FE9}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{DA7F313C-AA00-4F90-8377-64CD8A73E6AE}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{A71C3536-5E5E-4181-9AFE-69500AAB0A3A}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{EA6958A5-6A7C-4762-9C4E-8491E3FEBB99}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{24BE01F0-279B-43A1-89C1-CFDED1BA3042}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab06.xlsx
+++ b/AfDD_2023_Annex_Table_Tab06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1230A65C-6064-4D98-B351-51486CF13975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65796F31-DD1D-4E91-A5A2-7B9BD65AC5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{A2D18C90-39A1-486E-B468-DAD85E7A19B3}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{CE879B70-B5F3-45E9-88D7-5BC8CF41A32A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="174">
   <si>
     <t>Table 6: Basic education indicators</t>
   </si>
@@ -546,16 +546,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F90A6D7-69CF-4E6F-974D-6D76B13CB3B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C966F8-299A-4FF7-8D05-7A604B648796}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4638,7 +4641,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C109" s="57"/>
       <c r="D109" s="57"/>
@@ -4651,7 +4654,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
@@ -4663,7 +4666,9 @@
       <c r="J110" s="57"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
       <c r="E111" s="57"/>
@@ -4675,7 +4680,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
@@ -4688,7 +4693,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
@@ -4712,13 +4717,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{71B1243E-D8EC-4F5B-937B-95F8EA010FE9}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{DA7F313C-AA00-4F90-8377-64CD8A73E6AE}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{A71C3536-5E5E-4181-9AFE-69500AAB0A3A}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{EA6958A5-6A7C-4762-9C4E-8491E3FEBB99}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{24BE01F0-279B-43A1-89C1-CFDED1BA3042}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{89836BD5-0826-4FD1-861C-1A9EB7A94037}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{4C426F93-943B-493F-AA34-4F8D2ED1C044}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{32FC7779-ADC1-4502-9F30-34E8DC12A183}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{C25A74BC-2A46-4859-9063-808D36E1D31B}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{CFFB91E6-F2A0-4C85-A733-7A5B625A9AA4}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{CA327AEA-1C42-4D21-A9C1-11F64D44B46C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab06.xlsx
+++ b/AfDD_2023_Annex_Table_Tab06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65796F31-DD1D-4E91-A5A2-7B9BD65AC5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{380832FB-A6D4-46A9-ADDF-AB8465CBA31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{CE879B70-B5F3-45E9-88D7-5BC8CF41A32A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{9EA1A8C5-AF74-45E8-9E18-FEA5B6E9FEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab06" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab06'!$A$2:$I$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab06'!$A$1:$I$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1384,7 +1384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C966F8-299A-4FF7-8D05-7A604B648796}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4576676-D334-49B2-B51C-5C00365E6314}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1392,16 +1392,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.33203125" style="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1414,7 +1414,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0.66781000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1.0152000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>1.00288</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>1.2023600000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>0.79140999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>0.69277999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>0.99792000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>0.98941000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>0.91701999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>0.98989000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>31</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0.92666800000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>0.80245</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>0.86636999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>0.52017999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>0.44544</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>0.86689000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>0.75119999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>48</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>0.97170999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>0.93088000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>31</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>0.76939000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>53</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>0.81920000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>55</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>57</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>0.81716</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>59</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>0.74987000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>61</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>0.91998999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>0.95779999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>65</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>0.95725000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>67</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>0.89473000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>69</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>1.0097400000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>71</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>73</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>0.71686000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>75</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>0.85677999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>77</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>0.87848000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>79</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>0.85702</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>31</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>0.86957333333332998</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>82</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>0.86158999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>84</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>0.85633999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>86</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>88</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>0.68008000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>90</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>0.77539000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>92</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>0.83921999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>31</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>0.80252400000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>95</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>0.57565</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>97</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>0.63132999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>99</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>0.89476</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>101</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>0.93128999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>103</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>0.67312000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>105</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>0.89165000000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>107</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>0.50875999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>109</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>0.49501000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>111</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>0.54376999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>113</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>0.54603999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>115</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>0.61131999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>117</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>0.73897999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>119</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>0.61406000000000005</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>121</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>0.67481000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>123</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>0.68822000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
         <v>31</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>0.66791800000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>31</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>0.79776139999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>31</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>0.96285776470588003</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
         <v>31</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>0.98584000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>31</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>0.90776037037037005</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="41" t="s">
         <v>31</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0.90171096296296005</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="41" t="s">
         <v>31</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0.87721944444444</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
         <v>31</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>0.69045590909091004</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
         <v>31</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>0.83153285714285996</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="41" t="s">
         <v>31</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>0.77176599999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>31</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>0.66791800000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>31</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>0.81961333333332997</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>31</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>0.91502187499999998</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>31</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>0.78907000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41" t="s">
         <v>31</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0.73624800000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>31</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>0.95387200000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>31</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>0.98175454545454999</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="41" t="s">
         <v>31</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>0.99752666666667</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="41" t="s">
         <v>31</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>0.99112333333333003</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="41" t="s">
         <v>31</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>0.76314249999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="41" t="s">
         <v>31</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>0.97235333333332996</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="41" t="s">
         <v>31</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>0.80435547619047998</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41" t="s">
         <v>31</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>0.96030671641790999</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="41" t="s">
         <v>31</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>0.70187304347825996</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="41" t="s">
         <v>31</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>0.43409999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="41" t="s">
         <v>31</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>0.84779809523810001</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="41" t="s">
         <v>31</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>0.92505499999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="41" t="s">
         <v>31</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>0.98629800000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="41" t="s">
         <v>31</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>0.98613166666666996</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41" t="s">
         <v>31</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>0.99384454545455003</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="41" t="s">
         <v>31</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>0.72618064516128999</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="41" t="s">
         <v>31</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>0.81668444444443999</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="41" t="s">
         <v>31</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>0.85114000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="41" t="s">
         <v>31</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>0.98721800000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
         <v>31</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>0.79337500000000005</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41" t="s">
         <v>31</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>0.92005812499999995</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="41" t="s">
         <v>31</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>0.76230192307692002</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41" t="s">
         <v>31</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>0.92114384615385003</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="56"/>
@@ -4530,7 +4530,7 @@
       <c r="I99" s="56"/>
       <c r="J99" s="56"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
@@ -4543,7 +4543,7 @@
       <c r="I100" s="57"/>
       <c r="J100" s="57"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
@@ -4556,7 +4556,7 @@
       <c r="I101" s="57"/>
       <c r="J101" s="57"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
@@ -4569,7 +4569,7 @@
       <c r="I102" s="57"/>
       <c r="J102" s="57"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
@@ -4582,7 +4582,7 @@
       <c r="I103" s="57"/>
       <c r="J103" s="57"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
@@ -4595,7 +4595,7 @@
       <c r="I104" s="57"/>
       <c r="J104" s="57"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C105" s="57"/>
       <c r="D105" s="57"/>
       <c r="E105" s="57"/>
@@ -4605,7 +4605,7 @@
       <c r="I105" s="57"/>
       <c r="J105" s="57"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C106" s="57"/>
       <c r="D106" s="57"/>
       <c r="E106" s="57"/>
@@ -4615,7 +4615,7 @@
       <c r="I106" s="57"/>
       <c r="J106" s="57"/>
     </row>
-    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="58" t="s">
         <v>168</v>
       </c>
@@ -4628,7 +4628,7 @@
       <c r="I107" s="57"/>
       <c r="J107" s="57"/>
     </row>
-    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="58"/>
       <c r="C108" s="57"/>
       <c r="D108" s="57"/>
@@ -4639,7 +4639,7 @@
       <c r="I108" s="57"/>
       <c r="J108" s="57"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>171</v>
       </c>
@@ -4652,7 +4652,7 @@
       <c r="I109" s="57"/>
       <c r="J109" s="57"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>172</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="I110" s="57"/>
       <c r="J110" s="57"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>173</v>
       </c>
@@ -4678,7 +4678,7 @@
       <c r="I111" s="57"/>
       <c r="J111" s="57"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>169</v>
       </c>
@@ -4691,7 +4691,7 @@
       <c r="I112" s="57"/>
       <c r="J112" s="57"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>170</v>
       </c>
@@ -4704,7 +4704,7 @@
       <c r="I113" s="57"/>
       <c r="J113" s="57"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="57"/>
       <c r="D114" s="57"/>
@@ -4717,12 +4717,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{89836BD5-0826-4FD1-861C-1A9EB7A94037}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{4C426F93-943B-493F-AA34-4F8D2ED1C044}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{32FC7779-ADC1-4502-9F30-34E8DC12A183}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{C25A74BC-2A46-4859-9063-808D36E1D31B}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{CFFB91E6-F2A0-4C85-A733-7A5B625A9AA4}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{CA327AEA-1C42-4D21-A9C1-11F64D44B46C}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{5181310F-6356-4685-BD23-DBB575215DD2}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7C01065F-421C-4D40-8613-7C800CA7E559}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{79EEE2DA-200B-41D8-AF08-1EEFD8293990}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{70317252-4CB0-43F9-A068-03AEDA484ABA}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{9F2CB6E7-4D49-47A9-BD23-2C76C4FB0B0A}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{9C326D1D-42D1-4D9C-8C2B-60851F9122CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
